--- a/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400379</t>
   </si>
   <si>
-    <t>Adam Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I appreciate you holding this hearing.    I want to thank General Campbell for being here and also for his service. I think he is the absolute right man for the job in Afghanistan. Certainly he has had a lot of experience there in a number of different roles during our conflict in Afghanistan.    And I think there has been progress just since General Campbell took over, and I will go ahead and give you all the credit for this. They finally arrived at a power-sharing arrangement within the Afghan government; signed a bilateral security agreement; and really laid the foundation, at least, to build off that solid government and build a partnership, unlike in Iraq, where we had, you know, very, very strong difficulty getting any sort of bilateral security agreement that would allow us to stay. We have achieved that.    As the chairman mentioned, President Ghani wants us to be there, and hopefully we can make that relationship work to help maintain the security.    Ultimately that, you know, that is the big challenge. Afghanistan has got to be responsible for itself. They have got to be able to provide for their own security, and they have made great strides in doing that.    As I am sure the general will point out, they have taken over the primary security role throughout the country and have done okay. Not going to, you know, sugar-coat that. It is still a very tough fight.    But they have held their own, they have managed to keep the country relatively stable in light of the insurgency, and we need to build on that because ultimately in Afghanistan and Iraq and all of these countries, Western military forces cannot impose security on another country. There is, you know, I mean, a fine line between helping them and appearing like a foreign occupying force. In this case, as we draw down and up the responsibility of the Afghan security forces, I think we have done it about right, giving them that responsibility.    But going forward, there will continue to be many, many challenges. The government still has corruption problems. The Taliban are still very active. The border issues with Pakistan have not been resolved.    And we definitely have a security interest in that region. As I have said many times before in this committee, I wish we didn't. It is a very, very difficult place to deal with.    But we do. The Taliban, Al Qaeda, these are groups that are part of the larger movement that threatens us, so we need a strong presence there that can help contain that--but again, hopefully one that builds towards self-sufficiency and the Afghan people being able to stand on their own, provide for their own security and their own governance.    I look forward to hearing from the general today on how we are progressing on those goals and where we go from here.    With that, I yield back. Thank you, Mr. Chairman.    The Chairman. Thank you, sir.    Just on an administrative note, all members' offices were notified yesterday that for the purposes of this hearing we are going to go in reverse order for those who were here at the gavel. Part of my thinking is we have had a number of members--newer members who have sat through a long time on other hearings before you have gotten to answer questions. In addition, those of us who have been here a while have had the opportunity to ask a number of questions about Afghanistan, and so this is a good opportunity for newer members.    So after we hear from General Campbell, we will start at--go in reverse order for everyone who was here at the time of the gavel, and then, as we always do, recognize members in their order of appearance of coming into the committee room.    So, General Campbell, again, thank you for making time to be with us. Without objection, your full written statement will be made part of the record, and the floor is yours.    General Campbell. Chairman Thornberry, Ranking Member Smith, and distinguished members of the committee, thank you, really, for the opportunity to appear before you today. I am honored to lead and represent the service men and women of United States Forces-Afghanistan.    And I would like to begin by thanking the committee for your steadfast support of our soldiers, our sailors, our airmen, our marines, and our civilians. And due to your leadership and commitment, they are the best-trained, best-equipped force our Nation has ever deployed, and their outstanding performance bears testimony to your backing and the backing of the American people, so thank you very much.    I would like to pay tribute to our military families. They are the unsung heroes of the last 13-plus years of our conflict. In many ways, our frequent absences from home are harder on them than they are on us, and without their love and support and their strength, we could not succeed. So I thank the military families.    I would also like to recognize the over 2,200 service men and women who have been killed in action in Afghanistan and the over 20,000-plus who have been wounded. Each day we strive to bring meaning to their sacrifices. And we honor their memories and their loved ones by continuing to build a secure and stable Afghanistan and by protecting our own homeland.    Over 13 years have passed since the 9/11 attacks, and we haven't forgotten why we first came to Afghanistan and why we remain there. And since 2001 the extraordinary efforts and courage of our forces have ensured that another terrorist attack originating from Afghanistan and directed against the U.S. homeland has not occurred.    Over 6 months have passed since I assumed command, and much has changed since then. Afghanistan, the region, the enemy, and our coalition have undergone many tremendous transitions, and most of these have been very positive.    I would like to emphasize a few of these today in order to place our current campaign in context and to really reaffirm the conditions that exist for us to achieve an enduring peace and potential strategic win for Afghanistan.    And in September Afghanistan completed the first peaceful, democratic transition in its history, and this was after a prolonged--very prolonged campaign. And this transition was a monumental achievement. It represented the Afghans' commitment to a democratic and open society.    The difference between the new national unity government and its predecessors is night and day. President Ghani and chief executive Abdullah have embraced the international community, our coalition, and the Afghan National Defense [and] Security Forces, or the ANDSF.    Our partnership is strong. We now have a ratified bilateral security agreement, and, sir, I would just tell you, a lot of people worked very, very hard for that; and the NATO [North Atlantic Treaty Organization] status of the forces agreement, which grant us necessary authorities to continue our mission.    Dynamics within the region continue to evolve, as well. President Ghani has made regional engagement a top priority in order to address shared security and economic interest. Nowhere is this more evident than in Pakistan and Afghan relations. The Pakistani Taliban's murderous attack in Peshawar on 16 December may prove to be their 9/11 and really a game-changer for the region.    Most senior Pakistani officials recognize that they can no longer separate good terrorists from bad terrorists. And in the last few months I have witnessed firsthand substantive improvement in the interactions between Afghan and Pakistani militaries. They are now talking.    General Raheel, the Pakistan army chief of staff, remarked during his recent trip to Kabul, ``The enemies of Afghanistan are the enemies of Pakistan.'' And this is a constructive admission, and we are doing everything we can to promote their closer cooperation. And while we must temper our expectations, I remain optimistic that both countries are working towards a more productive relationship.    The enemy remains in a state of flux, too. The Taliban failed to achieve any of their stated goals in 2014. They failed to disrupt the elections; they failed to undermine the political transition; and they failed to prevent the Afghan government from signing a long-term security agreement with both NATO and the United States.    On the battlefield they achieved no enduring gains. Mullah Omar hasn't been seen in years.    The Taliban's senior leadership is in disarray. Constantly pressured by the ANDSF, suffering from dissension within their own ranks, and lacking popular support, they have turned to high-profile terrorist attacks, particularly against soft targets inside of Kabul. In a desperate attempt to remain relevant, they are failing to win over the Afghan population.    With the coalition off the battlefield, they are primarily killing their fellow Afghans and Muslims, and they are murdering innocent civilians. And it is time now for them to lay down their arms and heed President Ghani's call to help rebuild the Afghan nation.    The possible rise of Daesh, or ISIL, is also a new development. Thus far, we believe that the Daesh presence in Afghanistan represents more of a rebranding of some of the marginalized Taliban, but we are still taking this potential threat, with its dangerous rhetoric and ideology, very, very seriously. We are working very closely with the ANDSF to evaluate and understand the dynamic nature of this fledging network.    The potential emergence of Daesh represents an additional opportunity to bring both Afghanistan and Pakistanis together to confront this common threat. We will continue to engage leaders from both countries on ways we can collaborate to meet this challenge. We are all driven to prevent Daesh from establishing a meaningful foothold in Central Asia.    United States Forces-Afghanistan and our coalition have undergone tremendous changes, as well, here in the last 6 months. On January 1st, United States Forces-Afghanistan formally ended its combat mission, Operation Enduring Freedom, and commenced its new mission, Operation Freedom's Sentinel.    We have also ended all detainee operations. Simultaneously, troops from 41 nations, which comprise the new NATO mission, Resolute Support, began executing their train, advise, and assist mission in order to develop the capabilities and long-term sustainability of the ANDSF.    On January 1st the ANDSF also assumed full security responsibilities. They are ready, and it is time. In their second fighting season in the lead, the ANDSF were challenged and tested, but they held their own against a very determined enemy.    On the battlefield, the ANDSF fought tenaciously and demonstrated their increasing capabilities. Today, the government of Islamic Republic of Afghanistan remains firmly in control of all 34 of its provincial capitals and all of its major cities.    The Afghan special forces, in particular, have proven to be the most proficient in the entire region. They have constantly executed unilateral, direct-action missions using their own intelligence, using their own Special Mission Wing helicopters to carry out long-range insertions in low illumination. These are remarkable capabilities for any military.    For both the ANDSF and coalition, Afghanistan continues to be a dangerous place. Tragically, we lost a coalition soldier from Turkey last Thursday in a suicide attack inside of Kabul.    ANDSF casualty rates increased in 2004--or 2014, excuse me--roughly 5 to 7 percent higher than they were in 2013. However, I think this must be viewed in light of the fact that their operational tempo was four times greater than it was in 2013 and that over 100,000 coalition forces were not on the battlefield. Even considering the higher casualty rates, the ANDSF attrition rates, which account for all losses to the force, have not impacted combat readiness too severely.    Army and police recruiting has not been a problem. Afghan youths continue to join the ranks of the ANDSF.    And service in the security forces is widely respected and viewed as an honorable, patriotic profession. The Afghan National Army remains the most trusted institution in the country.    On balance, after watching the ANDSF respond to a variety of challenges over the past 6 months, I don't believe the insurgents represent an existential threat to the government. However, ANDSF still need a great deal of help in developing the systems and processes necessary to run a modern, professional army and police force.    They also need sustained support in addressing the capability gaps of aviation, intelligence, sustainment, and special operations. To address these gaps, our advisory mission and mentorship will continue to be vital. Our advisors are at the security ministries, at the army corps level, in police zones, and those remain our main efforts.    Although clear challenges exist, I do believe that the ANDSF capabilities, their capacities, and their morale will be sufficient, backstopped by our advisory efforts. And this will provide for Afghanistan's long-term security by the end of the Resolute Support Mission.    President Ghani recently remarked that, ``Compelled by tragedy and cemented by mutual sacrifice, the partnership between Afghanistan, NATO, and the United States has entered a new phase.'' And I believe we are at a very critical inflection point in our campaign.    Many challenges remain before us as the new Afghan government continues to form. It is still finding its footing, and it must do so while contending with a security threat, corruption, and economic challenges.    Yet, all of these changes, transitions over the last 6 months offer us really a tremendous opening and an opportunity. The Ghani administration offers us a strategic opportunity to develop a strategic partnership that will stabilize Afghanistan and then, in turn, provide and offer greater security for the region, and ultimately the United States homeland.    There is a new spirit of cooperation in Kabul--something we didn't have before. And I firmly believe that our concurrent counterterrorism and train, advise, and assist efforts will reinforce and deepen our strategic partnership and shape conditions for a favorable outcome to this conflict.    We could offer no greater tribute to the American people, our fallen, and their loved ones, than by maintaining our commitment to a long-term stability of Afghanistan and the enduring protection of our homeland.    I would like to direct the members' attention to the charts and a couple photographs to your right front that we displayed. We have also provided paper copies for you to look at.    [The information referred to can be found in the Appendix beginning on page 81.]    General Campbell. And I am often asked, ``What have we accomplished? What have we achieved? What is success? Has it been worth it?''    And I frequently share these statistics and images to underscore the tremendous progress that has taken place in Afghanistan in the last 13-plus years. Every measurable piece you take a look at--roadways, people who use the Internet, number of people in school, females in school, the workforce. Pretty incredible. It is unprecedented.    The life expectancy, increase of 21 years just in the last 13 years. That is unprecedented. A remarkable return on our investment.    And few countries advanced so rapidly over the last several years, and that is success. And the coalition and our ANDSF created the conditions for that success--741 million years--life years of Afghanistan people, based on new life expectancy.    And I want to underscore that we are underwriting this progress not just for the Afghans, but for the American people. And the Afghan stability and security contributes to our own.    The next two will be pictures of where we were in 2001 and where we are in 2014. And the first one shows inside of Kabul then, and on the bottom now. That is at Maiwand Circle. And then Kabul at day--or Kabul at night, I am sorry. Fifth fastest growing city in the country. Remarkable difference.    We have undercut the terrorist appeal, which feeds on desperation and instability. The hard work and significant sacrifices of countless U.S. and coalition military personnel and civilians over the last 13-plus years has created the conditions where Afghans can now take the responsibility for their own security and governance.    The Afghans welcome the opportunity to shape their destiny, but they will--still desire and need our assistance. We are supporting the emergence of a secure, prosperous Afghanistan that desires to be and can be our reliable strategic partner, and one that will never again allow terrorists to use its territory to launch--to plan and launch attacks against us.    President Ghani has asked for additional flexibility in the NATO and U.S. mission to account for the fact that his government remains in transition. He acknowledges that while the ANDSF are better equipped--better equipped and trained than ever, work remains to build their bureaucratic processes and systems. Additionally, he believes that a sustained U.S. and NATO commitment provides vital stability to the country as a new government solidifies--a tremendous psychological boost to the Afghan people.    We will continuously assess the progress of Resolute Support, and United States Forces-Afghanistan is currently involved in a comprehensive winter review of our campaign. And this review is taking a look at all of our lines of effort, not just the military.    And I have provided various options and recommendations for adjusting our force posture through my chain of command. One issue is to determine how long we should stay and can stay engaged at the regional level before we concentrate inside of Kabul.    Once again, I express my profound gratitude to the committee members for your unfailing support of our mission and our troops in Afghanistan. I am humbled and privileged to lead the men and women of their caliber and courage, and every day they are making all of us proud.    And I ask that, again, sir, as you said, that my written statement submitted earlier be taken for the record. I do look forward to your questions, and I notice that the first two rows are filled sir, so I look forward to that, as well.    So thank you.    [The prepared statement of General Campbell can be found in the Appendix on page 51.]    The Chairman. Thank you, General.    And I would just say, I appreciate the data that you brought to us. Some of this is surprising to me, and I--some of the information about the attitudes of the Afghan people I think are helpful to us--are particularly helpful to us.    I think Mr. Smith and I are going to withhold our questions at the moment. I would request if we could put the posters down, just to--unless members have questions about it, just to not block folks' view.    And I would yield 5 minutes to the distinguished gentleman from New Jersey, Mr. MacArthur.</t>
   </si>
   <si>
     <t>412643</t>
   </si>
   <si>
-    <t>Thomas MacArthur</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    And, General, I also really appreciated your comments and want to echo what you said about our men and women in uniform and their families and the sacrifices they have made. I think it is important at every opportunity to remember them.    I had a question about a comment that Secretary Carter made yesterday, and I want to get your take on it. Secretary Carter told the Senate Armed Services Committee that withdrawal from Afghanistan would be conditions-based. It seemed to me that hinted that maybe there was no firm deadline for withdrawal, and my understanding has been that there has been an articulated plan by the President to have troop drawdowns by the end of 2016.    So my question for you is, do you think that extending withdrawal past 2016 would help you better accomplish your goals on the ground?    General Campbell. Sir, thank you for the question, and I did see the Secretary's comments. So I have really provided options that stay within the framework of what the President put out there, and it does show the current plan as 9,800 U.S., going down to 5,500 by the end of December of 2015, going down to between 1,000 and 1.5--1,500 by the end of 2016.    The options that I presented forward did not go past 2016; they are all providing flexibility within 2015 and 2016, sir.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>412615</t>
   </si>
   <si>
-    <t>Pete Aguilar</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. I appreciate the change in format. I will be sure to add you to the Christmas card list. Thank you for that.    Thank you, General, for being here. With respect to the AUMF, if Congress were to pass the proposed AUMF could you provide us with examples of what you could and could not do within that?    General Campbell. Thanks for your question, sir. I mean, I have not read the entire AUMF. I could tell you from looking at it briefly that what that would provide--I mean, the authorities I have today and the resources I have today I can continue to work hard at the CT mission and the train, advise, assist mission that I have.    With the AUMF, the way I understand it now, with no geographical boundaries I think I still would be able to prosecute what I need to for today. After 2015, where my authorities may change, then I would have to go back and relook that hard. But, sir, today I have no issues, as I think General Austin said from CENTCOM [U.S. Central Command] yesterday with that.</t>
   </si>
   <si>
@@ -97,9 +88,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman.    General, I would like to talk about a couple other things. Let's talk about readiness of the forces.    This has been a generation that could have gone into their military career in 1990 and now be retired, and have been--or have seen battle for the last 24 years. So here in Congress we worry about things like sequestration, we worry about readiness of force, and worry about one-to-one ratios of young men and women being over there for a year and being back here for a year, or 6 months and a year, or something of that nature.    Can you give us an idea of the readiness of force today as compared to maybe 4 or 5 years ago, or even 10 years ago?    General Campbell. Sir, I can talk better and give you a perspective on the readiness of forces that I get from the services, as they are service providers. A little bit different perspective when I was the vice chief of the Army before I went over there 6 months ago. But all the forces that I get in Afghanistan, particularly from the U.S., are trained at the highest level and are focused on their mission in Afghanistan. So no issue with that.    And I think all the services prioritize their deploying forces first to ensure that they get that necessary training because they will be putting their lives on the line.    On the sequestration, I will just tell you that it was 6 months ago when I was a vice and I continue to talk to senior leadership from all the services that with sequestration that would devastate the services and their ability to provide the same type of forces that I get today.    You know, my son is a sergeant in the Army. He has been to Afghanistan twice. He has served in Ghazni; he has served in Jalalabad. He was in the 82nd Airborne [Division]. He is currently in the 101st.    And I worry about, you know, both as a father and then as a commander, the ability to make sure that we continue to provide the very best training, and all the resources and the things that go with that, for our soldiers, sailors, airmen, marines, and our civilians that deploy. And sequestration would put--would dampen that--would elevate the risk, absolutely.</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t>412632</t>
   </si>
   <si>
-    <t>Seth Moulton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And, General, thank you very much for joining us this morning. I was impressed by what I saw on the CODEL [congressional delegation] 2 weeks ago, with the progress that you have made.    And I share the chairman's view of the situation in Iraq, where I think that all the progress that we made, or much of the progress we made during the surge, has now been squandered by withdrawing too quickly and not providing the ongoing political and diplomatic support that we frankly knew was necessary, that Ambassador Crocker and General Petraeus called for at the end of the surge.    So, I am interested to hear from you what specifically you are doing differently in Afghanistan this time around. And I will add that I have the highest respect for President Ghani, but I am not interested in hearing what is different about our partner, because I think that after you invest trillions of dollars of our national treasure, after you invest thousands of lives, we shouldn't leave the eventual success of our mission up to the whims of our partner.    So I am interested in what you and the U.S. effort there is doing differently from Iraq.    General Campbell. Sir, thanks for the question. And again, thank you for visiting our troops there. I apologize for not being there. I was back here doing the SASC [Senate Armed Services Committee] testimony as you were forward.    So I would think--again, I spent 19--18, 19 months in Iraq as a one-star back in 2006, 2007 during the surge, inside of Baghdad. And I think the fundamental difference for me is really the Afghan security forces and their leadership and their determination to make sure--they see the news, they see the media.    They understand what is going on with Iraq. And they have personally told me, many of the senior leadership, that they will not let happen to Afghanistan what happened to Iraq.    You know, during the political instability last fall many people thought that they would divide among the ethnic fractures, which is what happened inside of Iraq. In Afghanistan they did not do that, despite a lot of talk. In fact, they solidified around that and took that as a point of pride to make sure that they didn't fracture, and that they were above that, and that they were a national force, and they take great pride in doing that.    I think the training that I have seen for the most part is all Afghan-led training. I was out in the 207th Corps in Herat a couple weeks ago and kind of unannounced I said let's--I asked the corps commander, ``Let's go look at some training.'' He took me to medical training, to some of their marksmanship training. I saw them clearing buildings.    Again, this was unannounced----</t>
   </si>
   <si>
@@ -133,9 +118,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you, General Campbell, for your service and leadership. I, too, had the privilege to participate in the CODEL chaired by our subcommittee chair, Joe Wilson, and I joined Congressman Moulton and Congressman Ashford on the trip. It was great to visit some of the troops deployed from my district.    So my question is, in late February the DOD [Department of Defense] announced the three units to deploy as the upcoming rotation of forces in Afghanistan, and one of those units is the 2nd Brigade from the 10th Mountain Division, which I have the privilege of representing, which is located at Fort Drum, as you know. The 10th Mountain has supported operations in Afghanistan since 2001. It is the most deployed unit in the U.S. Army since 9/11 to both Iraq and Afghanistan.    So based upon my visit and our privilege of meeting with President Ghani and the upcoming deployment of soldiers in my district that I represent, I would like to know from you your assessment of the risks to the security situation as we draw down in Afghanistan and how that will impact our future operations against the Taliban.    General Campbell. Ma'am, again, thank you for visiting, and thank you for the question. I do have Colonel Pat Frank with me over here that commanded 3rd Brigade, 10th Mountain and was down in the southern part of Afghanistan back in 2010, 2011, and we are very appreciative of the 10th Mountain support.    You know, what I would tell you is that they will come in and they will work the train, advise, and assist. Force protection is our number one priority. The President has told me that is his number one priority.    I look at that every single day. We continuously monitor the threat streams both inside of Kabul and at all of our combat outposts and our TAACs. Every single day we are looking at ways on how we mitigate that threat.    You know, but frankly, it will continue to be a very dangerous environment. There will be insurgents that want to kill our soldiers. You know, we shouldn't make--we shouldn't put that aside. That is out there every single day.    So every day what we can't do is become complacent. We tell our soldiers, you know, that in a 9-month, a 12-month rotation that they have their--they will have an opportunity to make a difference.    It may only be 15 seconds where they make that difference in their entire tour when it comes in terms of force protection. The issue is they don't get to pick when that 15 seconds is, so they have to be ready all the time.    And I think the services do a great job and our noncommissioned officers do a great job of preparing our soldiers to understand the risk that will become when they do deploy. And again, many of our soldiers have been there numerous times; they understand that.    It is changing and we continue to take a hard look at that. The green-on-blue incidents that have been out in the news here the last several years, where we have Afghan soldiers or police attack coalition or attack U.S. members--that continues to get much less as we have mitigated that through our own training with different programs to provide over-watch. The Afghans do a much better job on vetting both soldiers and police in how they do their training.    So that has gone way down and we feel, you know, we can't get complacent. We will continue to look at that.    But believe me, ma'am, the force protection is utmost in our mind and we work that very hard in our pre-deployment training, and once they get into country they are continually reminded and go through processes that make sure that they don't become complacent.</t>
   </si>
   <si>
@@ -148,9 +130,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, Mr. Chairman.    And thank you, General Campbell. I can tell you that when we went to see General Ghani he was so terribly appreciative of your efforts and all the efforts of our military and our support personnel. It was absolutely incredible.    I was also happy to hear from President Ghani that--of his relationship with the University of Nebraska at Omaha, and the--Tom Gouttierre and the Afghan studies program, which has been going on there for over 30 years. So I was glad to hear that.    And I want to thank Congressman Wilson, who is the chairman of our Emerging Threats Subcommittee, for his leadership, and also my two colleagues, who--it was an immensely important opportunity for me and I think our district to see what was going on.    Obviously we went to Jordan and Iraq and to Afghanistan, so we got the entire picture, in a way. And Congresswoman Stefanik I think asked a critical question that I was left with is--you know, we have many fewer members of the armed services in Iraq and--than we do in Afghanistan, and for historic reasons and for reasons that you have discussed.    Could I just ask you to comment just a little more on this situation? If the ISIS situation becomes more--it already is very dangerous, but where more troops from the American side are necessary, or whatever the eventuality may be, could you just comment a little bit more on that interrelationship?    President Ghani did talk about what you suggest, that they are observing, watching. He talked about his Pakistani--his openings to Pakistan and his discussions with Pakistan, which seem very, very positive.    But this threat in Syria and Iraq, which is growing and--but were contained to a certain degree, it is the same Middle East area, so how do you--again, could you just comment a little more on that interrelationship? What if it becomes more difficult for the Iraqi forces to be successful in their country? Thank you.    General Campbell. Sir, I can't comment on the Iraqi forces; I can comment on the Afghan forces. And again, they have--the senior leadership of the Afghan police and army have told me on several occasions that, you know, they will not let what happened to Iraq happen to Afghanistan. They are very determined about that, have gone out of their way to tell that to me as, you know, that question has been raised in many different instances with them, and as they talk to their leadership, as they have talked to the President.    The President brings this up, though, because he wants people to understand that the environment in Afghanistan continues to evolve. It is a dynamic environment and he doesn't want his forces to become complacent. He wants them to understand that what happened in Syria and Iraq and this network can jump stages of growing to this network, and that it evolves very, very quickly.    And so I think he just wants to make sure that his forces, his intelligence services are taking a look at everything and making sure that it doesn't get a foothold inside of Afghanistan and continues to spread. And he can be helped with this association with Pakistan because they have the same issues there, and I think that relationship and understanding that they have a common enemy that they can work toward together will help them.    So I think that they are looking at this very hard. He gets several security updates a day, and the Daesh or the ISIL piece continues to be on his mind.    But in the National Security Council meetings that I sit in he has all the senior cabinet folks in there, that is a point of discussion in most of them. But I think they view it as a potential threat and ensuring that they have a strategy as we move forward, and I think they will--that will continue to evolve over time.</t>
   </si>
   <si>
@@ -160,9 +139,6 @@
     <t>412640</t>
   </si>
   <si>
-    <t>Ryan K. Zinke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman.    And, General, it is always good to see you again. I tell you, I sleep better at night knowing you are there.    You know, as a former deputy commander and acting commander of special forces in Iraq, you know, I think we left Iraq too soon. I think we--when we left Iran or Iraq on a timeline rather than a condition on the ground, it affected the Sunnis; we disenfranchised them, I believe. We isolated the Kurds.    We, to a degree, empowered a centralized government to be non-inclusive. And the result was a vacuum. And that vacuum, I think what we are seeing today, was filled by ISIS.    And my concern is we don't repeat the same model in Afghanistan, and I think the concern of the committee remains the same.    Looking forward, what would you consider to be your three priority conditions, and what is that end strength to support that?    And lastly, in my experience, having a detention center--at least a temporary detention center--gave us the ability to rapidly turn around sensitive site exploitation and do follow-on missions in a timely manner that made a difference on the ground. And not having the ability to have a detention center--at least a temporary detention center--to me would adversely affect your ability, when you find a target, to rapidly turn around and do follow-on missions. If you would comment on that, whether, in fact, it does adversely affect your ability to turn around?    General Campbell. Sir, thanks for your service, and thank you for the questions, as well.    If I can answer the last one first, then come back to the ISIL piece on the intelligence. So intelligence, as you know, drives operations, and that is what we really try to instill in our Afghan partners, that all their operations should be intelligence-based, and we continue to work that very hard.    We do have a very good relationship with the MOI and the MOD, and the NDS [National Directorate of Security], which is their intel [intelligence] service. And so as they have the detainees, we work a relationship to make sure that we can partner with them, and the intelligence, the information they get from their detainees, we try to make sure that we can get that information as well, because it impacts our force protection and we can also help guide them.    They are building a fusion cell, which combines the MOD, the MOI, and the NDS together--lessons that we have learned over years and years. They are stove-piped where they are now, and so you have MOI working off different pieces, MOD working off pieces, and NDS working off pieces. And what we are really trying to force is this sharing.    They are testing this really with a pilot down in northern Helmand in this operation today, and we are seeing quite good success off of this as they do share all that intelligence and understand that it makes them a better-capable force as they get this intelligence, turn it very quickly to drive to other targets. So I think our relationship over the last 13-plus years of working with them at the ministry levels now and at the corps levels, we have a relationship to enable to make sure that we can help them with that intelligence. So I feel comfortable where we are at.    Still got a lot of work to do with that. They don't have the same type of ISR or those platforms that provide us some of that. We share where we can, but we have got to make sure we continue to build their capabilities.    So we are working on how we build the intel capability. Intelligence is one of the eight essential functions that we continue to build at all the ministry levels. My senior deputy chief of staff for intelligence, the J-2, Major General Scotty Berrier, was a CENTCOM J-2 before this assignment. He really is the senior intel advisor that I have in country and he works with both the MOI and MOD to build that intel capability.    So I feel much better than where we were on building that, and I think that is going to help all of us in the end.    On the ISIS piece, sir, on conditions, you know, I take a look every single day and assess different conditions. Time is one of those conditions, number of people on the ground, both from a coalition perspective and from an Afghan security institution perspective is another condition.    So I think I would take a look at all those. I really do want to take a look at what happens after this first full fighting season, where the Afghans are really totally on their own. They have led it for the last 2 years but this is the first time that they really are on their own and we really are just in the train, advise, assist and don't have the resources to provide for them, and they are working very hard on their own capacity for close air support, intelligence, and those areas.    And so, you know, I can't give you a number that I would feel comfortable with right now. I think I need to let this play out.    But I do believe that we are--the best thing that we can do to hedge against Afghanistan not becoming an Iraq, my number one priority would be to continue to train, advise, assist, and build their own capacity and their capability both in close air support, both in their special operating forces, which increases their CT capability. And they want to be--and President Ghani has said many times, you know, he is a strategic partner and wants to continue to build the Afghan CT capability so down the road they have that, and then we will continue to work with them on that.</t>
   </si>
   <si>
@@ -175,9 +151,6 @@
     <t>412620</t>
   </si>
   <si>
-    <t>Gwen Graham</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    And thank you, General. It is so good to hear some good news of--so thank you for your report.    One thing that you stated is that the terrorist appeal has been undercut in Afghanistan. That is something that we need to figure out how do we bring that reality into other places in the region.    But my question focuses on local law enforcement. I am aware that recently that Prime Minister Ghani has changed some of the leaders of the local police forces, and I was wondering, what is the interaction between military and law enforcement?    My husband happens to be law enforcement, and I know how important it is to have that close relationship. It is often those closest to us that can have the greatest impact on our behaviors.    So is the military involved in working with local law enforcement, and do you see that as a positive development with the changes in law enforcement recently in Kabul? Thank you.    General Campbell. Thank you, ma'am, for the question. You know, in Afghanistan it really is--we talk about pillars and the security pillars, and the police and the army being two different pillars there. And what I tell people is when these pillars--they do cross-pillar coordination, they work together, the army and the police, then they are much stronger and they can't be beat.    And I attend a Saturday 3-, 4-hour session every Saturday, which we call the senior security shura, and that has the senior members of MOD, the senior members of MOI, NDS, which is their intel arm, and then the national security advisor, Minister Atmar. And so the police and the army interaction is daily, every single day.    The police operate a little bit differently. They do have the law enforcement aspect; they continue to work through that. But in many places they are the only security institution in the far reaches of Afghanistan, and so they are a threat to the insurgency.    Afghan Local Police, which are designed to provide security inside of the villages, are probably the most attacked. They have the least amount of training, they don't have the same weapons as the regular police or the army. And so they do get attacked, but they do stand up and they do protect, and they are feared by the Taliban and the other insurgents because they are directly linked to the people inside the communities.    But I think the linkage between the police and the army is a strong one and they continue to work it.    In the provinces they have what they call OCCPs or OCCRs. These are institutions that the governors have that have police, army, and the intel folks all together inside one, for lack of a better term, an operational command and control element at both the regional and then at the provincial level.    And they provide interaction between the police and army. They sit right next to each other in desks and work that, and then they interact with their higher headquarters, which also has police and army.    In my headquarters inside of Kabul I have army--Afghan army representatives, Afghan police that sit right next to each other inside of my combined joint operations center, as well. So that interaction is very good.    And if I could just hit the intel piece or the terrorist appeal piece, what I will tell you is that less than 10 percent of the people in Afghanistan embrace the Taliban, and that number continues to go down. And a lot of that is because of the actions of the Taliban, and they understand that the civilian casualty piece--although a report said something like 75 percent are caused by the insurgents, you know, our records show potentially above 90 percent are caused by the terrorists, and the people are just frankly tired of this.    And they want a better life--they want the exact same thing we want. They want to be able to send their kids to school. They want to be--have a roof over their head. They want to have a job to provide for them.    And so they understand that underneath this national unity government--85 percent of the people want this government, they want it to do well, and they are tired of what--the Taliban and what they represent. That is a big change from where we were just a couple years ago.</t>
   </si>
   <si>
@@ -187,9 +160,6 @@
     <t>412538</t>
   </si>
   <si>
-    <t>Jackie Walorski</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman. Thank you, General, for being here.    My question is, I think it has been fairly disconcerting--it has to me, anyway--of how much information, when it comes to operational security, the President of the United States has given out and how we read it every day in the media. We learn about the withdrawal, the troop size; we learn, as the Taliban does at the same time, all kinds of unbelievable information.    And to kind of follow up on my colleague's comment--and I really don't want to ask you this for public disclosure, but I want to ask you for this either in writing or a classified briefing. I want to know the detailed Plan B. What are the flags and the signs that are going to trigger our reengagement, should this go awry?    I really do want to know, because I want to know that we do have a plan. And I don't want to ask it in public for everybody in the world to listen, because it really does concern me, but I would ask for you to provide that in writing or a classified briefing. What are we looking for that is going to happen so we don't end up again with more loss of blood and life and an engagement for America, as we are looking at in Iraq?    [The information referred to is classified and retained in the committee files.]</t>
   </si>
   <si>
@@ -214,9 +184,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>O'Rourke</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    General, I would first like to thank you and those who serve and have served under you, including the Bulldog Brigade from Fort Bliss in El Paso, Texas, for the incredible job that you are doing and have done in Afghanistan. And I join my colleagues in just thanking you for this terrific performance, which goes beyond any claims that someone could made or anecdote, but actually by the numbers and by the pictures and what we can see and what my colleagues were able to see in their recent visit.    And I agree with many of the comments made so far that I think there are many lessons that we can apply from your success, this country's success, in Afghanistan to our operations and objectives in Iraq.    When it comes to the proposed AUMF that we are considering to combat ISIS, my understanding that the immediate goal is to stop ISIS and ultimately to degrade, defeat, and destroy ISIS. What is our goal in Afghanistan relative to the Taliban?    General Campbell. Sir, thanks. And I really do believe that, again, on the AUMF--I have to look at that harder and look forward to other questions in maybe a closed setting and we can talk through that on the resources that we have to be able to do that.    Sir, on the Taliban piece what I would tell you is our goal really is to build the Afghan capacity, both in their police and in their army, to be able to have a secure, stable Afghanistan for the future. And the Taliban and their message, you know, is not having any traction with the Afghan people.    As I said in my opening comments, it really is time now for the Afghan Taliban to take a look at what they are trying to do and become part of the political process. President Ghani, in his inauguration speech, opened the door there for them to come back and really work hard on reconciliation, which could potentially be a game-changer down the road. But, you know, that has to work with Pakistan and where they go, and where Afghanistan is, as they continue to build their Afghan security force capability.    But I do believe that, you know, they want to get the Taliban to where they are part of the Afghan vision moving forward, and killing other Afghans is not part of that vision. And so they have to operate from a position of strength, and I think 352,000 Afghan security forces and another 30,000 Afghan Local Police give them that capability.    And the Taliban now are looking around and saying, ``You know, the coalition forces, they have signed a BSA [bilateral security agreement], a SOFA [status of forces agreement]; they are going to continue to help and provide train, assist, and advise--you know, what we have been trying to do here for the last year. We have got to cut this out. We have got to come in.''    And so I think that is really where we are going with the Taliban, but is because the Afghan security forces are going to drive this, not the coalition.</t>
   </si>
   <si>
@@ -229,9 +196,6 @@
     <t>412567</t>
   </si>
   <si>
-    <t>Jim Bridenstine</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    General, the President's stated policy is to take our strength from 10,800 troops in Afghanistan down to 5,000 troops by the end of 2015. In your best professional military judgment, is that the right end strength at the end of 2015?    General Campbell. Sir, it is about 5,500, half of--somewhere around 5,500 by the end of December, and again, the options that I provided I think provide flexibility both for President Ghani and as the commander on the ground to take a look at force protection and how to get after the train, advise, and assist.</t>
   </si>
   <si>
@@ -262,9 +226,6 @@
     <t>412579</t>
   </si>
   <si>
-    <t>Marc A. Veasey</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman.    I wanted to ask the general a couple of questions based on the popular opinion poll that he gave us here, and it was talking about Afghans expressing confidence in their new government.    Do you have any sort of sense of how Afghans feel as far as confidence is concerned with Afghan capability post-U.S. or U.S.--post-U.S. drawdown?    General Campbell. Sir, again, it is--you know, like anything else, I think they understand the capability that just having the coalition with them provides, and a lot of it is just giving them some confidence.    You know, as I have taken a look on close air support--I give you that as an example that I get asked a lot of times, ``I need close air support. I need close air support.''    What I tell the Afghans is, ``Don't plan your operation wholly dependent upon close air support. You have the capability. The Taliban doesn't have close air support. The Taliban doesn't have up-armored Humvees. That Taliban doesn't have [122 millimeter] D-30 howitzers. The Taliban doesn't have, you know, the weapons that you have.''    So a part of it is just leadership again, and then really having the confidence to take this fight to the enemy. But if you go out on the streets of Kabul and you engage with, you know, 85 percent or 80-plus percent of the people, they would tell you they are thankful for the coalition, that they want the coalition around.    I think they are more comfortable if they have a coalition because it knows, you know, one, from helping out the security forces; it also provides them the opportunity to engage, have jobs, and that kind of thing. So I think they would tell you that they feel comfortable with the coalition presence.</t>
   </si>
   <si>
@@ -277,9 +238,6 @@
     <t>412513</t>
   </si>
   <si>
-    <t>Paul Cook</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    General, first of all, I want to commend you on your testimony, your years of service in combat, peace, the--can't even add up all the deployments you have been through, and I--what I wanted to address is something that isn't here, and it is of concern to our NATO partners, maybe under the radar, and that is the situation of the poppy and the drugs and the corruption that, from a rational viewpoint, it affects Europe.    How are we doing on--can you comment on the status of that and where it is going right now?    General Campbell. Sir, thanks for the question.    There have been a lot of different reports on the cultivation of poppies and what--the impact that it has financially for the insurgents in the area, a lot of that coming out of the Helmand area. Media reports will say that has increased over the last couple years as opposed to going down.    Trade is a concern to President Ghani. He has talked about it. He is looking hard at a strategy on how he goes after that and deals with the people that produce it, that deals with the insurgents that use it for their gain.    They have looked at different options down there. They do have quite a good record of a small task force that goes after and seizes different places and, for lack of a better term, drug labs that produce what comes out of there. But, you know, quite frankly, you know, it has not been enough and the strategy there has not taken that away from the insurgents.    That is not part of my TAA or part of my CT mission, so I can't comment, you know, further on that piece of it. But bottom line, it does provide, you know fuel, financial assistance to the Taliban, and we have to take--and the government of Afghanistan is looking hard at a holistic look at how they can combat that.</t>
   </si>
   <si>
@@ -295,9 +253,6 @@
     <t>412533</t>
   </si>
   <si>
-    <t>Tammy Duckworth</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    General, thank you for being here today.    At a time of sequestration, when we are cutting our funding for U.S. forces here in the U.S. and looking at everything from shutting down commissaries on bases to adjusting retirement benefits for our forces, we are looking at our future expenditures in Afghanistan. Now, I have concerns that we have sufficient oversight with how the Afghans are spending the money that we are providing them with the resource. And specifically, you had mentioned, you know, their lack of self-sustaining capability, logistical capability.    I would like to look specifically at their ability to account for personnel. We talked about already the over 20,000 troop attrition in the Afghan forces that has been reported.    You know, I rely on the Special Inspector Generals for Afghanistan Reconstruction's [SIGAR] reports as to what is going on there and I see that there have been some real concerns. I mean, the numbers of Afghan military and police forces fluctuate significantly, sometime from quarter to quarter by as much as 20,000 or 40,000 personnel.    And I am worried that we are spending this money, we are not spending as much on our own U.S. forces here, we are spending money there, but, you know, those 40,000 troop fluctuations, are those best case scenario an accounting error? Those folks were never there, or they quit? Or were we paying for folks that were never there--ghost soldiers, as you were, that were on the books?    So can you talk a little bit about how we are providing oversight for the Afghans and help to them to figure out how they can get a handle on their forces and how they are spending this money that we are providing?    General Campbell. Yes, ma'am. Thank you for your service, as well.    You know, that is always a very, very tough, complex thing to get your hands around. People in our own Army, as you know, we have a hard time sometimes figuring out exactly who is present for duty, who is not.    Many of the figures I think you have seen in the last several days on numbers--you know, first off, we need to make sure that SIGAR and Members of Congress have total transparency on everything that we are doing inside of Afghanistan, and I want to make sure--and we are committed to provide SIGAR and, again, Congress everything they need to do that.    Some of the things are classified, and I--and back in August timeframe--so this is not a new story, but back in August when I got there I asked that we take a holistic look at all the information that was going out to not only the SIGAR but to the press and everybody else, and I said, ``Anything that is readiness data''--and sometimes numbers of people and how you take a look at that could be construed as readiness data--but I said, ``Anything that is readiness data for the Afghans needs to be classified.'' We just can't put that out, for the Afghans' good and also because we are wholly dependent upon the Afghans now for our own force protection. It became more so that I needed to have the readiness data classified.    The U.S. Army's readiness data is classified. All of our services' data is classified, as you know.    So that decision was made in August. I reaffirmed with President Ghani--in fact, he approached me about having that kind of data classified. And again, here in the last probably 2 weeks or so I went back to him and said, ``I want to make sure you are comfortable, because I am getting asked a lot of questions on this.''    He was absolutely adamant that Afghan data that pertained to readiness data was classified. So I feel very comfortable where we are at.    And I have not, as has been reported in some media, changed my mind. I have not. Readiness data remains classified.    Now, on the numbers of people--and again, the last report that came out a couple days ago from SIGAR, I think what happened there--and there is--again, I want to make sure SIGAR has everything they need to do their job and Congress has that information, as well. But I think numbers reported and numbers where you get that information comes from many different sources, and there is a report, called the 1230 Report, that Congress has dictated that I give, and that is sort of the--that is the base line, and that is where the numbers need to come from. And I think SIGAR understands that as well.    But I think some of the reports you saw and where the discrepancy were were like quarterly reports, and they may not have even come from my headquarters but they came from maybe lower headquarters, where members of potentially SIGAR went down to a lower headquarters, said, ``Hey, what are your numbers?'' And so we have to do a much better job at my headquarters to make sure that we have processes in place that we can provide the right data at the right time, but we have to have a better procedure to do that.    And we are working on that. I just signed a standard operating procedure to consolidate how we work that.    We have over 50, probably 62 different audits going on inside of Afghanistan, from SIGAR to AAA [Army Audit Agency] to DODIG [Department of Defense Inspector General]--60-plus. And so as we have transitioned and brought our numbers down, I don't have the people in country to do all of that.    I am dependent upon reach-back or other ways, and we have got to come up with a way to be able to figure out how we provide audit data, but at the same time continue to transition. And I don't have that capability. I have to raise that with my own leadership as we go forward.    But the numbers that I think you saw the last couple days, I think there is a miscommunication. When I learned through The New York Times, not through SIGAR, that these numbers are going to be replaced, I contacted John Sopko with SIGAR and said, ``Hey, we need to take a hard look at this data you are getting ready to release. I don't think it is right.''    So I alerted him to that, they stopped the release of that piece. And again, we are looking hard at how we can continue to work making sure everybody gets the right data. Hopefully that got to your question.</t>
   </si>
   <si>
@@ -307,9 +262,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    General, thank you for being here.    If there is one thing we have learned over the last several months it is that the people of a country have to be willing to hold that country, and I am speaking specifically of Iraq. Afghanistan obviously a very different country. I think that from the context of the American citizen that maybe the way it is talked about the perception is it is all one and the same issue, if you will.    And I do think that we need to do a better job of getting that message out when we do have the victories, because all America is hearing right now is the bad that is happening in the Middle East. So thank you for your service.    I want to talk with you about one of the issues that you have talked about a couple of times: close air support. Obviously, in order for Afghanistan to be a success they have to be able to hold that country from the Taliban and other terrorist organizations when we are hopefully completely out of there.    The Afghanistan Air Force, the A-29 [Super Tucano] light air support mission right now is currently--they are being trained at Moody Air Force Base in Valdosta. If you could just speak to the--that element, how critical it is, the air support and Afghanistan's being able to carry out their own air support long term, and then how many A-29s do you expect we should be prepared to provide for the Afghanistan Air Force?    General Campbell. Sir, thanks for the question. And again, we are very thankful in Georgia that they have that capability to provide the training for the A-29s. It is a very long process. You know, looking in hindsight, I wish we would have started that years ago and we would have that capability now, but we are where we are and I think what is happening there--training the pilots, training the maintainers for this fixed-wing close air support capability--is critical for Afghanistan and their air force as we move to the future.    You know, quite frankly, we can't get it quick enough for them. The current program has about 20 aircraft over the next 3 years that will come to Afghanistan.    We won't have any for this fighting season 2015. We will get some at the end of the year, a couple more before start of fighting season 2016. But most will come out in 2017 and then in 2018. So that is another reason we need to continue to have this train, advise, and assist for the next several years, working at least on the air force piece.    But it is a great, great capability. They are looking forward to it. And I think it will give them, and the people in that region will understand, that the Afghans have this great close air support capability.    We are working other ways to work that here in the near term with forward-firing machine guns under Mi-17s, with MD-530, this Little Bird I talked about. And again, they do have indirect-fire mortars, 120 mortars, D-30 howitzers that will continue to work with them on different ways to improve that capability. But this is a huge asset they are looking forward to getting inside of Afghanistan.</t>
   </si>
   <si>
@@ -319,9 +271,6 @@
     <t>412193</t>
   </si>
   <si>
-    <t>Joe Courtney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you, General, for your endurance and service.    Tomorrow night at the state armory in Hartford there is going to be a sendoff for the Connecticut Army National Guard 192nd Military Police Battalion, who are heading off to Afghanistan. And, you know, first of all, they were given notice almost 60 days ago to the day that they were being sent over. And I realize this is not sort of in your lane in terms of, you know, making the decisions about, you know, reaching into Guard and Reserve units.    You know, what I would say is that, frankly, there are folks who are kind of scratching their heads that if we are at a force level of about 10,000, you know, Guard and Reserves--there was, I think, an understanding and an acceptance back during the surge days, you know, when we had hundreds of thousands of people over in the Middle East--you know, tapping into the Guard at this point, and frankly, doing it with almost the bare notice required by law, is something that, again, folks are struggling with.    And so first of all, I guess I would ask you--and I don't mean to put you on the spot, but if you were in front of those families tomorrow night, you know, what you would share with them. And I am not asking you to, you know, explain the decision-making process, because I realize that that happens somewhere else, in terms of your command.    But again, as their leader over in Afghanistan, you know, what would be your thoughts that you would share with the families?    General Campbell. Sir, thank you. And again, the Army--all of our service could not do what we do without our military families. So I would first thank them for their sacrifice, for having to allow us to have that soldier continue to serve.    I would tell them that what they are getting ready to do, you know, two things--is a very, very important mission, will mean a great deal to the Afghan people but also provide for our own security back here.    I would ask them to watch out for each other and always take care of brothers and sisters on their left and right to make sure that force protection is always foremost in their mind. I would ask them never to get complacent. But that they do have a very, very important job.    You know, many times when I tell the soldiers, airmen, sailors, marines over there that sometimes you are too close to it; they can't see some of these changes we talked about earlier, and they--you know, people serve for different reasons, but they do serve because they know that they are serving for the greater good. And when they come to Afghanistan I tell them, you know, ``Whatever you do, make that place better than when you found it,'' and I think I have seen over the years everybody continues to do that.    They will have an impact on whatever they do and whoever they touch. And again, sometimes this is an impact that they can't be able to put into words, but I would just tell you their service would be honored and that they will feel good about what they have done after they leave there.    I can't speak to the service provider piece, that only that, you know, for many, many years our National Guard, our U.S. Army Reserve have played an important role both in Iraq and Afghanistan and will continue as we move forward. And so I appreciate their service.</t>
   </si>
   <si>
@@ -331,18 +280,12 @@
     <t>400209</t>
   </si>
   <si>
-    <t>Walter B. Jones</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you. And, General Campbell, thank you and your staff for being here today.    And I am going to take a little different approach. I looked at your narrative and the comment by Senator Levin, who is now retired, and says, ``I just cite these public opinion polls--Americans, 65 or 70 percent think we haven't achieved anything.'' And then he is critical of the people that don't think we have achieved anything by saying at the end of it, ``And the people who are 7,000 miles away think we haven't?''    You know, well, I would say to the Senator, it is those people back home that are paying the bills. They need to get something out of the tax dollars that they are paying.    When we went into Afghanistan in 2001 the debt of our Nation was $5.95 trillion. Today it is over $18 trillion in debt. And you know from your brothers and sisters in the military what we are faced with with budgets.    All right. Then I read in a blog from yesterday by Jason Ditz--D-I-T-Z--between casualties and desertion, Afghan military is shrinking fast. ``The desertion problem is a longstanding one, with many Afghans signing up for the military, sticking around long enough to get their first paycheck, then bailing, and often taking their weapons with them as a sort of severance package.''    Then in The Guardian yesterday, ``Afghan Officials Sanction Murder, Torture, Rape, Says Report.'' Now, I realize that this is from Human Rights Watch, and we can have our views on that, whether it is a liberal group or a conservative group or whatever. That is fair. But they still write this, and apparently there has been no dispute.    And I will read just one paragraph: ``The report focuses on eight commanders and officials across Afghanistan, some of them counted among the country's most powerful men, and key allies for foreign troops. Some are accused of personally inflicting violence, others of having responsibility for militias or government forces that commit the crimes.''    I know some good things are happening. I don't question that at all. But where--Afghanistan has been proving in history it is the Wild West.    What my concern is that we have got 9 more years of a financial commitment and a military commitment, which might be limited in numbers but they are still young men and women over there walking the roads to be shot at and have their legs blown off. I just wondered, because we in Congress are going to be grappling with sequestration this year.    The chairman and ranking member, who are doing a great job, are very concerned about the military budget, and I think all of us here are, as well. I know I am. I have Camp Lejeune down in my district and Cherry Point Marine Air Station.    But I get to a point that I just wonder--not talking about you, sir; you are an outstanding, great military person--but will there ever be anyone in the diplomatic corps or the military that say, ``You know, we have done about all we can do?'' Some things are impossible.    Yes, some people will benefit, but when I read reports like this, whether they be from the left or the right--Pat Buchanan is one of my biggest heroes. Ron Paul is one of my dearest friends. And I continue to see 9 more years of spending money that we don't have so we can decrease the number in our military.    It doesn't make any sense. I know you don't make the policy decisions. I understand that.    But will there ever be someone who follows behind you and follows behind me that will be honest to the Congress and the American people who have to pay the bill that we have done about as much as we can do?    General Campbell. Sir, thanks for the question.    Sir, I would answer like this: Again, you know, quite frankly, this is the world we live in, not maybe the world we want. And I think the complexity of the world we live in is a generational piece that is going to go on long after you and I are out of here, and we need to understand that and look at it as a generational issue and put strategies and policies in place that will get at this long-term.    So it is not going to change overnight, and I think we just have to change our mindset on where we are at. And I think the American people are well served by the great men and women who continue to raise their right hand and serve, knowing that they can go into harm's way, knowing that despite trying to do something bigger than themselves, that they are going to face going into a service that is going to have budget issues that is going to take away.    And so I think this is a long-term issue we have to get at.    But what I am pleased about is that, you know, you mentioned all those different reports there, and there are challenges, not only in Afghanistan but many places in the world. I do see Afghanistan as a place, because of the significant investment in lives and in financial that we have provided to them, that this can be the bright spot, that this is, for lack of a better term, a strategic win that will carry on in this part of the world that is a very complex, dangerous part.    And for very little continued investment, we can make this the shining light of Central Asia and that part of the world. And I think, you know, we have got to start someplace, and Afghanistan is the good news story among all these other bad things that are coming out.    And for every bad news report you just mentioned there, sir, there are probably 9 or 10 good news that do not get out because, as you know, good news doesn't sell. What I have had to do is take--I give President Ghani a good news story storyboard that I collect each week.    I have my commanders provide me a good news storyboard that talks about the good things that Afghans are doing in different areas, and when I meet with him I say, ``Mr. President, Dr. Abdullah, here are some good news stories. You are not hearing about it in the news but you need to know this is happening.''    And I give them 10 or 15 PowerPoint slides with pictures showing good news story in Afghanistan, and that word just doesn't get out because it doesn't sell. But believe me, sir, for every VBIED [vehicle-borne improvised explosive device], suicide vest that went off in Kabul, there are 9 or 10 that are stopped.    And so there is good news out there.    The Chairman. Gentlelady from Guam, Ms. Bordallo.</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
-    <t>Madeleine Z. Bordallo</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    General Campbell, thank you for your challenging leadership in Afghanistan.    I want to quote the 2015 National Security Strategy in saying, ``We must recognize that a smart national security strategy does not rely solely on military power. Indeed, in the long term our efforts to work with other countries to counter the ideology and the root causes of violent extremists will be more important.''    I strongly support this approach, General. However, I am also concerned that the persistence we have shown in Afghanistan and our presence there can have harmful effects on our long-term readiness.    As we draw down to a force capable of protecting our security interests in the region, how will we capitalize and re-utilize the equipment--and I know this was brought up earlier--that we currently have in-country to protect the readiness of our total force? Specifically, can you comment on retrograde efforts, as they are supported in the fiscal year 2016 budget, and what impact sequestration would have on this effort if sequestration is not repealed?    General Campbell. Thank you, ma'am. And thank you for your visit last fall, as well.    I haven't looked at the numbers for the retrograde portion for fiscal year 2016. I would tell you that we will continue to need the necessary resources, the financial piece to bring back the retrograde that we have in Afghanistan so that we can put that back into the force here. Probably 80 percent of that now is for the Army.    But the very best equipment that we have is in Afghanistan, so we need to continue to make sure we get that back, get it reset, and get that into the force.    I do think that we are on glide slope to do that. We had some concerns, you know, a year, year and a half ago, but as a vice then now as a commander on the ground, I don't have those same concerns and we will continue to get that back to the Army.    Sequestration, from a different perspective, I think will impact the readiness of all of our services. And again, that is why I think all the service chiefs, the chairmen have come out, as you know, and said that it would have a really, really bad impact if we go to sequestration--on readiness.</t>
   </si>
   <si>
@@ -355,9 +298,6 @@
     <t>412564</t>
   </si>
   <si>
-    <t>Brad R. Wenstrup</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    General Campbell, thank you so much for your service and taking on the mission that you are taking on. And it is encouraging to see the positive that we don't often hear about.    I would agree with you wholeheartedly, I think it was a great move by Ghani to sign a BSA and the SOFA. That bodes well for all of us. And I think it was probably wise, from where I sit, for Ghani and Abdullah to come together as governance partners.    And so my question to you is, what are you seeing as far as that relationship between the two of them and its effect on any national unity in Afghanistan?    General Campbell. Sir, thanks. That is a great question.    I look at this every day and I do think that both President Ghani and Dr. Abdullah gave up some to make sure that they can continue to have Afghanistan as a nation continue to move forward. They both did that after a long period there.    As they work together and as I see both of them many times, both together and then separately, I think they complement each other as they work together. They both have great vision for where they want to take Afghanistan.    And, you know, it is--it really is a people around each of them I think that they have to continue to work through, and they have run into instances where they have had differences, but I think they work hard to make sure as they come out to the public that they have one voice as they move forward. That is not easy all the time, but I think they understand how important it is so they work toward that, both from a security perspective and then from an economic perspective.    But again, I think they complement each other and I am honored to have the opportunity to engage with both of them quite a few times every week.</t>
   </si>
   <si>
@@ -380,9 +320,6 @@
   </si>
   <si>
     <t>412254</t>
-  </si>
-  <si>
-    <t>Niki Tsongas</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you, General, for hanging in here. I have appreciated very much your knowledge and very nuanced testimony.    I want to follow up on Congresswoman Bordallo's last comment. As a Member of Congress I have made six trips to Afghanistan, and four with a delegation of women--generally three Republican congressional--Congresswomen and three Democratic Congresswomen.    And our goal really has been twofold. It has been over Mother's Day, so to thank our women soldiers. Often we commiserate with them, know how hard it is to be away from home on Mother's Day, as it is for all of those who are serving.    But we have also had the real opportunity to see the gains that have been made for women in Afghanistan. And while they are not as widespread as we would like, I think Kabul has been a prime beneficiary of them, but--and other urban settings--but nevertheless, those gains have been real and your report showed that, in terms of health care, access to education, a whole--access to work, although--however, limited.    So as we are drawing down, our concern really is that those gains are not somehow traded away. And as you have talked about President Ghani's reaching out and referencing the Taliban in his inaugural speech, I can tell you that as we meet with women over there those comments send chills through them because we know how terribly they suffered under the Taliban regime.    And so I think our concern, our bipartisan concern, has become, you know, how do we protect the gains that have been made? And as we have talked today about some of the differences about Afghanistan and Iraq, it seems to me that one of them has really been the signing of the bilateral security agreement, and that it has set up a very different framework and I think has given us leverage, a role in Afghanistan as it transitions to its next phase.    So I am curious--while the security situation is really your role and many of these other gains have been investments that have come about through other parts of our presence there--how you see the United States' role using its ongoing relationship with the government to make sure that, let's just say negotiations do go forward with the Taliban, how we make sure, how we use our leverage there, how you use your leverage, representing the United States, to make sure that women's gains remain on the table and they are somehow not traded away as others argue for a path forward in which the Taliban are brought into the government?    General Campbell. Ma'am, thank you for your visits. Thank you for your question.    Again, I think leadership has a big deal here to play. I think, again, the difference here is that President Ghani and Dr. Abdullah are very committed to this. It is written in their constitution, and so as they work with the Taliban, if there is reconciliation down the road, I think one of the key parameters there will be is that the constitution will hold, and inside the constitution it talks about respect of women's rights.    Again, I think with the first lady, with President Ghani, with Ambassador McKinley and his team at the embassy, with the 30, 40-plus ambassadors I interact with periodically, they all have this upmost in their mind. It comes up in different settings, different meetings I am at.    And so, you know, it is sort of a drum beat that President Ghani, Dr. Abdullah, senior leadership, and then the other ministries continue to hear, and they understand how important it is that they abide by, you know, their constitution and where they want to go.    So I think leadership will make a difference, and I understand that in my realm, in the security realm, what we are--what we have changed now is everything is conditions-based. And so we sign letters of commitment to provide finance, to provide fuel, on and on and on and on.    And I think this is where the same ways we look forward in this area that it could be conditions-based, and everything that we continue to do through different NGOs we make conditions-based and they abide by their constitution, and I think the leadership can make that happen over there.</t>
@@ -790,11 +727,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -814,13 +749,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -840,13 +773,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -866,13 +797,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -892,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -918,13 +845,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
         <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -944,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -970,13 +893,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -996,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1022,13 +941,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1048,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1074,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
         <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1100,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1126,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1152,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1178,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>31</v>
-      </c>
-      <c r="G17" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1204,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>32</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1230,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1256,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1282,13 +1181,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" t="s">
-        <v>39</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1308,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1334,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" t="s">
-        <v>44</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1360,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G24" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1386,13 +1277,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1412,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" t="s">
-        <v>48</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1438,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" t="s">
-        <v>53</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1464,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" t="s">
-        <v>53</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1490,13 +1373,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1516,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1542,13 +1421,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1568,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1594,13 +1469,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
-      </c>
-      <c r="G33" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1620,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
-      </c>
-      <c r="G34" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1646,13 +1517,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1672,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1698,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1724,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" t="s">
-        <v>66</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1750,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1776,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1802,13 +1661,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1828,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1854,13 +1709,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1880,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1906,13 +1757,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1932,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1958,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" t="s">
-        <v>71</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1984,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>81</v>
-      </c>
-      <c r="G48" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2010,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2036,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>81</v>
-      </c>
-      <c r="G50" t="s">
-        <v>82</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2062,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>86</v>
-      </c>
-      <c r="G51" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2088,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G52" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2114,13 +1949,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
-      </c>
-      <c r="G53" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2140,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>86</v>
-      </c>
-      <c r="G54" t="s">
-        <v>87</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2166,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
-      </c>
-      <c r="G55" t="s">
-        <v>93</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2192,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
-      </c>
-      <c r="G56" t="s">
-        <v>93</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2218,13 +2045,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>96</v>
-      </c>
-      <c r="G57" t="s">
-        <v>97</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2244,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>96</v>
-      </c>
-      <c r="G58" t="s">
-        <v>97</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2270,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
-      </c>
-      <c r="G59" t="s">
-        <v>101</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2296,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
-      </c>
-      <c r="G60" t="s">
-        <v>101</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2322,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>104</v>
-      </c>
-      <c r="G61" t="s">
-        <v>105</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2348,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
-      </c>
-      <c r="G62" t="s">
-        <v>108</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2374,13 +2189,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
-      </c>
-      <c r="G63" t="s">
-        <v>108</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2400,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
-      </c>
-      <c r="G64" t="s">
-        <v>108</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2426,13 +2237,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>112</v>
-      </c>
-      <c r="G65" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2452,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>112</v>
-      </c>
-      <c r="G66" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2478,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>112</v>
-      </c>
-      <c r="G67" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2504,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2530,13 +2333,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
-      </c>
-      <c r="G69" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2556,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2582,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>112</v>
-      </c>
-      <c r="G71" t="s">
-        <v>113</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2608,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>121</v>
-      </c>
-      <c r="G72" t="s">
-        <v>122</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2634,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>121</v>
-      </c>
-      <c r="G73" t="s">
-        <v>122</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2660,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>121</v>
-      </c>
-      <c r="G74" t="s">
-        <v>122</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,12 +55,24 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I appreciate you holding this hearing.    I want to thank General Campbell for being here and also for his service. I think he is the absolute right man for the job in Afghanistan. Certainly he has had a lot of experience there in a number of different roles during our conflict in Afghanistan.    And I think there has been progress just since General Campbell took over, and I will go ahead and give you all the credit for this. They finally arrived at a power-sharing arrangement within the Afghan government; signed a bilateral security agreement; and really laid the foundation, at least, to build off that solid government and build a partnership, unlike in Iraq, where we had, you know, very, very strong difficulty getting any sort of bilateral security agreement that would allow us to stay. We have achieved that.    As the chairman mentioned, President Ghani wants us to be there, and hopefully we can make that relationship work to help maintain the security.    Ultimately that, you know, that is the big challenge. Afghanistan has got to be responsible for itself. They have got to be able to provide for their own security, and they have made great strides in doing that.    As I am sure the general will point out, they have taken over the primary security role throughout the country and have done okay. Not going to, you know, sugar-coat that. It is still a very tough fight.    But they have held their own, they have managed to keep the country relatively stable in light of the insurgency, and we need to build on that because ultimately in Afghanistan and Iraq and all of these countries, Western military forces cannot impose security on another country. There is, you know, I mean, a fine line between helping them and appearing like a foreign occupying force. In this case, as we draw down and up the responsibility of the Afghan security forces, I think we have done it about right, giving them that responsibility.    But going forward, there will continue to be many, many challenges. The government still has corruption problems. The Taliban are still very active. The border issues with Pakistan have not been resolved.    And we definitely have a security interest in that region. As I have said many times before in this committee, I wish we didn't. It is a very, very difficult place to deal with.    But we do. The Taliban, Al Qaeda, these are groups that are part of the larger movement that threatens us, so we need a strong presence there that can help contain that--but again, hopefully one that builds towards self-sufficiency and the Afghan people being able to stand on their own, provide for their own security and their own governance.    I look forward to hearing from the general today on how we are progressing on those goals and where we go from here.    With that, I yield back. Thank you, Mr. Chairman.    The Chairman. Thank you, sir.    Just on an administrative note, all members' offices were notified yesterday that for the purposes of this hearing we are going to go in reverse order for those who were here at the gavel. Part of my thinking is we have had a number of members--newer members who have sat through a long time on other hearings before you have gotten to answer questions. In addition, those of us who have been here a while have had the opportunity to ask a number of questions about Afghanistan, and so this is a good opportunity for newer members.    So after we hear from General Campbell, we will start at--go in reverse order for everyone who was here at the time of the gavel, and then, as we always do, recognize members in their order of appearance of coming into the committee room.    So, General Campbell, again, thank you for making time to be with us. Without objection, your full written statement will be made part of the record, and the floor is yours.    General Campbell. Chairman Thornberry, Ranking Member Smith, and distinguished members of the committee, thank you, really, for the opportunity to appear before you today. I am honored to lead and represent the service men and women of United States Forces-Afghanistan.    And I would like to begin by thanking the committee for your steadfast support of our soldiers, our sailors, our airmen, our marines, and our civilians. And due to your leadership and commitment, they are the best-trained, best-equipped force our Nation has ever deployed, and their outstanding performance bears testimony to your backing and the backing of the American people, so thank you very much.    I would like to pay tribute to our military families. They are the unsung heroes of the last 13-plus years of our conflict. In many ways, our frequent absences from home are harder on them than they are on us, and without their love and support and their strength, we could not succeed. So I thank the military families.    I would also like to recognize the over 2,200 service men and women who have been killed in action in Afghanistan and the over 20,000-plus who have been wounded. Each day we strive to bring meaning to their sacrifices. And we honor their memories and their loved ones by continuing to build a secure and stable Afghanistan and by protecting our own homeland.    Over 13 years have passed since the 9/11 attacks, and we haven't forgotten why we first came to Afghanistan and why we remain there. And since 2001 the extraordinary efforts and courage of our forces have ensured that another terrorist attack originating from Afghanistan and directed against the U.S. homeland has not occurred.    Over 6 months have passed since I assumed command, and much has changed since then. Afghanistan, the region, the enemy, and our coalition have undergone many tremendous transitions, and most of these have been very positive.    I would like to emphasize a few of these today in order to place our current campaign in context and to really reaffirm the conditions that exist for us to achieve an enduring peace and potential strategic win for Afghanistan.    And in September Afghanistan completed the first peaceful, democratic transition in its history, and this was after a prolonged--very prolonged campaign. And this transition was a monumental achievement. It represented the Afghans' commitment to a democratic and open society.    The difference between the new national unity government and its predecessors is night and day. President Ghani and chief executive Abdullah have embraced the international community, our coalition, and the Afghan National Defense [and] Security Forces, or the ANDSF.    Our partnership is strong. We now have a ratified bilateral security agreement, and, sir, I would just tell you, a lot of people worked very, very hard for that; and the NATO [North Atlantic Treaty Organization] status of the forces agreement, which grant us necessary authorities to continue our mission.    Dynamics within the region continue to evolve, as well. President Ghani has made regional engagement a top priority in order to address shared security and economic interest. Nowhere is this more evident than in Pakistan and Afghan relations. The Pakistani Taliban's murderous attack in Peshawar on 16 December may prove to be their 9/11 and really a game-changer for the region.    Most senior Pakistani officials recognize that they can no longer separate good terrorists from bad terrorists. And in the last few months I have witnessed firsthand substantive improvement in the interactions between Afghan and Pakistani militaries. They are now talking.    General Raheel, the Pakistan army chief of staff, remarked during his recent trip to Kabul, ``The enemies of Afghanistan are the enemies of Pakistan.'' And this is a constructive admission, and we are doing everything we can to promote their closer cooperation. And while we must temper our expectations, I remain optimistic that both countries are working towards a more productive relationship.    The enemy remains in a state of flux, too. The Taliban failed to achieve any of their stated goals in 2014. They failed to disrupt the elections; they failed to undermine the political transition; and they failed to prevent the Afghan government from signing a long-term security agreement with both NATO and the United States.    On the battlefield they achieved no enduring gains. Mullah Omar hasn't been seen in years.    The Taliban's senior leadership is in disarray. Constantly pressured by the ANDSF, suffering from dissension within their own ranks, and lacking popular support, they have turned to high-profile terrorist attacks, particularly against soft targets inside of Kabul. In a desperate attempt to remain relevant, they are failing to win over the Afghan population.    With the coalition off the battlefield, they are primarily killing their fellow Afghans and Muslims, and they are murdering innocent civilians. And it is time now for them to lay down their arms and heed President Ghani's call to help rebuild the Afghan nation.    The possible rise of Daesh, or ISIL, is also a new development. Thus far, we believe that the Daesh presence in Afghanistan represents more of a rebranding of some of the marginalized Taliban, but we are still taking this potential threat, with its dangerous rhetoric and ideology, very, very seriously. We are working very closely with the ANDSF to evaluate and understand the dynamic nature of this fledging network.    The potential emergence of Daesh represents an additional opportunity to bring both Afghanistan and Pakistanis together to confront this common threat. We will continue to engage leaders from both countries on ways we can collaborate to meet this challenge. We are all driven to prevent Daesh from establishing a meaningful foothold in Central Asia.    United States Forces-Afghanistan and our coalition have undergone tremendous changes, as well, here in the last 6 months. On January 1st, United States Forces-Afghanistan formally ended its combat mission, Operation Enduring Freedom, and commenced its new mission, Operation Freedom's Sentinel.    We have also ended all detainee operations. Simultaneously, troops from 41 nations, which comprise the new NATO mission, Resolute Support, began executing their train, advise, and assist mission in order to develop the capabilities and long-term sustainability of the ANDSF.    On January 1st the ANDSF also assumed full security responsibilities. They are ready, and it is time. In their second fighting season in the lead, the ANDSF were challenged and tested, but they held their own against a very determined enemy.    On the battlefield, the ANDSF fought tenaciously and demonstrated their increasing capabilities. Today, the government of Islamic Republic of Afghanistan remains firmly in control of all 34 of its provincial capitals and all of its major cities.    The Afghan special forces, in particular, have proven to be the most proficient in the entire region. They have constantly executed unilateral, direct-action missions using their own intelligence, using their own Special Mission Wing helicopters to carry out long-range insertions in low illumination. These are remarkable capabilities for any military.    For both the ANDSF and coalition, Afghanistan continues to be a dangerous place. Tragically, we lost a coalition soldier from Turkey last Thursday in a suicide attack inside of Kabul.    ANDSF casualty rates increased in 2004--or 2014, excuse me--roughly 5 to 7 percent higher than they were in 2013. However, I think this must be viewed in light of the fact that their operational tempo was four times greater than it was in 2013 and that over 100,000 coalition forces were not on the battlefield. Even considering the higher casualty rates, the ANDSF attrition rates, which account for all losses to the force, have not impacted combat readiness too severely.    Army and police recruiting has not been a problem. Afghan youths continue to join the ranks of the ANDSF.    And service in the security forces is widely respected and viewed as an honorable, patriotic profession. The Afghan National Army remains the most trusted institution in the country.    On balance, after watching the ANDSF respond to a variety of challenges over the past 6 months, I don't believe the insurgents represent an existential threat to the government. However, ANDSF still need a great deal of help in developing the systems and processes necessary to run a modern, professional army and police force.    They also need sustained support in addressing the capability gaps of aviation, intelligence, sustainment, and special operations. To address these gaps, our advisory mission and mentorship will continue to be vital. Our advisors are at the security ministries, at the army corps level, in police zones, and those remain our main efforts.    Although clear challenges exist, I do believe that the ANDSF capabilities, their capacities, and their morale will be sufficient, backstopped by our advisory efforts. And this will provide for Afghanistan's long-term security by the end of the Resolute Support Mission.    President Ghani recently remarked that, ``Compelled by tragedy and cemented by mutual sacrifice, the partnership between Afghanistan, NATO, and the United States has entered a new phase.'' And I believe we are at a very critical inflection point in our campaign.    Many challenges remain before us as the new Afghan government continues to form. It is still finding its footing, and it must do so while contending with a security threat, corruption, and economic challenges.    Yet, all of these changes, transitions over the last 6 months offer us really a tremendous opening and an opportunity. The Ghani administration offers us a strategic opportunity to develop a strategic partnership that will stabilize Afghanistan and then, in turn, provide and offer greater security for the region, and ultimately the United States homeland.    There is a new spirit of cooperation in Kabul--something we didn't have before. And I firmly believe that our concurrent counterterrorism and train, advise, and assist efforts will reinforce and deepen our strategic partnership and shape conditions for a favorable outcome to this conflict.    We could offer no greater tribute to the American people, our fallen, and their loved ones, than by maintaining our commitment to a long-term stability of Afghanistan and the enduring protection of our homeland.    I would like to direct the members' attention to the charts and a couple photographs to your right front that we displayed. We have also provided paper copies for you to look at.    [The information referred to can be found in the Appendix beginning on page 81.]    General Campbell. And I am often asked, ``What have we accomplished? What have we achieved? What is success? Has it been worth it?''    And I frequently share these statistics and images to underscore the tremendous progress that has taken place in Afghanistan in the last 13-plus years. Every measurable piece you take a look at--roadways, people who use the Internet, number of people in school, females in school, the workforce. Pretty incredible. It is unprecedented.    The life expectancy, increase of 21 years just in the last 13 years. That is unprecedented. A remarkable return on our investment.    And few countries advanced so rapidly over the last several years, and that is success. And the coalition and our ANDSF created the conditions for that success--741 million years--life years of Afghanistan people, based on new life expectancy.    And I want to underscore that we are underwriting this progress not just for the Afghans, but for the American people. And the Afghan stability and security contributes to our own.    The next two will be pictures of where we were in 2001 and where we are in 2014. And the first one shows inside of Kabul then, and on the bottom now. That is at Maiwand Circle. And then Kabul at day--or Kabul at night, I am sorry. Fifth fastest growing city in the country. Remarkable difference.    We have undercut the terrorist appeal, which feeds on desperation and instability. The hard work and significant sacrifices of countless U.S. and coalition military personnel and civilians over the last 13-plus years has created the conditions where Afghans can now take the responsibility for their own security and governance.    The Afghans welcome the opportunity to shape their destiny, but they will--still desire and need our assistance. We are supporting the emergence of a secure, prosperous Afghanistan that desires to be and can be our reliable strategic partner, and one that will never again allow terrorists to use its territory to launch--to plan and launch attacks against us.    President Ghani has asked for additional flexibility in the NATO and U.S. mission to account for the fact that his government remains in transition. He acknowledges that while the ANDSF are better equipped--better equipped and trained than ever, work remains to build their bureaucratic processes and systems. Additionally, he believes that a sustained U.S. and NATO commitment provides vital stability to the country as a new government solidifies--a tremendous psychological boost to the Afghan people.    We will continuously assess the progress of Resolute Support, and United States Forces-Afghanistan is currently involved in a comprehensive winter review of our campaign. And this review is taking a look at all of our lines of effort, not just the military.    And I have provided various options and recommendations for adjusting our force posture through my chain of command. One issue is to determine how long we should stay and can stay engaged at the regional level before we concentrate inside of Kabul.    Once again, I express my profound gratitude to the committee members for your unfailing support of our mission and our troops in Afghanistan. I am humbled and privileged to lead the men and women of their caliber and courage, and every day they are making all of us proud.    And I ask that, again, sir, as you said, that my written statement submitted earlier be taken for the record. I do look forward to your questions, and I notice that the first two rows are filled sir, so I look forward to that, as well.    So thank you.    [The prepared statement of General Campbell can be found in the Appendix on page 51.]    The Chairman. Thank you, General.    And I would just say, I appreciate the data that you brought to us. Some of this is surprising to me, and I--some of the information about the attitudes of the Afghan people I think are helpful to us--are particularly helpful to us.    I think Mr. Smith and I are going to withhold our questions at the moment. I would request if we could put the posters down, just to--unless members have questions about it, just to not block folks' view.    And I would yield 5 minutes to the distinguished gentleman from New Jersey, Mr. MacArthur.</t>
   </si>
   <si>
     <t>412643</t>
   </si>
   <si>
+    <t>MacArthur</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. MacArthur. Thank you, Mr. Chairman.    And, General, I also really appreciated your comments and want to echo what you said about our men and women in uniform and their families and the sacrifices they have made. I think it is important at every opportunity to remember them.    I had a question about a comment that Secretary Carter made yesterday, and I want to get your take on it. Secretary Carter told the Senate Armed Services Committee that withdrawal from Afghanistan would be conditions-based. It seemed to me that hinted that maybe there was no firm deadline for withdrawal, and my understanding has been that there has been an articulated plan by the President to have troop drawdowns by the end of 2016.    So my question for you is, do you think that extending withdrawal past 2016 would help you better accomplish your goals on the ground?    General Campbell. Sir, thank you for the question, and I did see the Secretary's comments. So I have really provided options that stay within the framework of what the President put out there, and it does show the current plan as 9,800 U.S., going down to 5,500 by the end of December of 2015, going down to between 1,000 and 1.5--1,500 by the end of 2016.    The options that I presented forward did not go past 2016; they are all providing flexibility within 2015 and 2016, sir.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>412615</t>
   </si>
   <si>
+    <t>Aguilar</t>
+  </si>
+  <si>
+    <t>Pete</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Aguilar. Thank you, Mr. Chairman. I appreciate the change in format. I will be sure to add you to the Christmas card list. Thank you for that.    Thank you, General, for being here. With respect to the AUMF, if Congress were to pass the proposed AUMF could you provide us with examples of what you could and could not do within that?    General Campbell. Thanks for your question, sir. I mean, I have not read the entire AUMF. I could tell you from looking at it briefly that what that would provide--I mean, the authorities I have today and the resources I have today I can continue to work hard at the CT mission and the train, advise, assist mission that I have.    With the AUMF, the way I understand it now, with no geographical boundaries I think I still would be able to prosecute what I need to for today. After 2015, where my authorities may change, then I would have to go back and relook that hard. But, sir, today I have no issues, as I think General Austin said from CENTCOM [U.S. Central Command] yesterday with that.</t>
   </si>
   <si>
@@ -88,6 +109,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chairman.    General, I would like to talk about a couple other things. Let's talk about readiness of the forces.    This has been a generation that could have gone into their military career in 1990 and now be retired, and have been--or have seen battle for the last 24 years. So here in Congress we worry about things like sequestration, we worry about readiness of force, and worry about one-to-one ratios of young men and women being over there for a year and being back here for a year, or 6 months and a year, or something of that nature.    Can you give us an idea of the readiness of force today as compared to maybe 4 or 5 years ago, or even 10 years ago?    General Campbell. Sir, I can talk better and give you a perspective on the readiness of forces that I get from the services, as they are service providers. A little bit different perspective when I was the vice chief of the Army before I went over there 6 months ago. But all the forces that I get in Afghanistan, particularly from the U.S., are trained at the highest level and are focused on their mission in Afghanistan. So no issue with that.    And I think all the services prioritize their deploying forces first to ensure that they get that necessary training because they will be putting their lives on the line.    On the sequestration, I will just tell you that it was 6 months ago when I was a vice and I continue to talk to senior leadership from all the services that with sequestration that would devastate the services and their ability to provide the same type of forces that I get today.    You know, my son is a sergeant in the Army. He has been to Afghanistan twice. He has served in Ghazni; he has served in Jalalabad. He was in the 82nd Airborne [Division]. He is currently in the 101st.    And I worry about, you know, both as a father and then as a commander, the ability to make sure that we continue to provide the very best training, and all the resources and the things that go with that, for our soldiers, sailors, airmen, marines, and our civilians that deploy. And sequestration would put--would dampen that--would elevate the risk, absolutely.</t>
   </si>
   <si>
@@ -100,6 +127,12 @@
     <t>412632</t>
   </si>
   <si>
+    <t>Moulton</t>
+  </si>
+  <si>
+    <t>Seth</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Moulton. Thank you, Mr. Chairman.    And, General, thank you very much for joining us this morning. I was impressed by what I saw on the CODEL [congressional delegation] 2 weeks ago, with the progress that you have made.    And I share the chairman's view of the situation in Iraq, where I think that all the progress that we made, or much of the progress we made during the surge, has now been squandered by withdrawing too quickly and not providing the ongoing political and diplomatic support that we frankly knew was necessary, that Ambassador Crocker and General Petraeus called for at the end of the surge.    So, I am interested to hear from you what specifically you are doing differently in Afghanistan this time around. And I will add that I have the highest respect for President Ghani, but I am not interested in hearing what is different about our partner, because I think that after you invest trillions of dollars of our national treasure, after you invest thousands of lives, we shouldn't leave the eventual success of our mission up to the whims of our partner.    So I am interested in what you and the U.S. effort there is doing differently from Iraq.    General Campbell. Sir, thanks for the question. And again, thank you for visiting our troops there. I apologize for not being there. I was back here doing the SASC [Senate Armed Services Committee] testimony as you were forward.    So I would think--again, I spent 19--18, 19 months in Iraq as a one-star back in 2006, 2007 during the surge, inside of Baghdad. And I think the fundamental difference for me is really the Afghan security forces and their leadership and their determination to make sure--they see the news, they see the media.    They understand what is going on with Iraq. And they have personally told me, many of the senior leadership, that they will not let happen to Afghanistan what happened to Iraq.    You know, during the political instability last fall many people thought that they would divide among the ethnic fractures, which is what happened inside of Iraq. In Afghanistan they did not do that, despite a lot of talk. In fact, they solidified around that and took that as a point of pride to make sure that they didn't fracture, and that they were above that, and that they were a national force, and they take great pride in doing that.    I think the training that I have seen for the most part is all Afghan-led training. I was out in the 207th Corps in Herat a couple weeks ago and kind of unannounced I said let's--I asked the corps commander, ``Let's go look at some training.'' He took me to medical training, to some of their marksmanship training. I saw them clearing buildings.    Again, this was unannounced----</t>
   </si>
   <si>
@@ -118,6 +151,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman.    And thank you, General Campbell, for your service and leadership. I, too, had the privilege to participate in the CODEL chaired by our subcommittee chair, Joe Wilson, and I joined Congressman Moulton and Congressman Ashford on the trip. It was great to visit some of the troops deployed from my district.    So my question is, in late February the DOD [Department of Defense] announced the three units to deploy as the upcoming rotation of forces in Afghanistan, and one of those units is the 2nd Brigade from the 10th Mountain Division, which I have the privilege of representing, which is located at Fort Drum, as you know. The 10th Mountain has supported operations in Afghanistan since 2001. It is the most deployed unit in the U.S. Army since 9/11 to both Iraq and Afghanistan.    So based upon my visit and our privilege of meeting with President Ghani and the upcoming deployment of soldiers in my district that I represent, I would like to know from you your assessment of the risks to the security situation as we draw down in Afghanistan and how that will impact our future operations against the Taliban.    General Campbell. Ma'am, again, thank you for visiting, and thank you for the question. I do have Colonel Pat Frank with me over here that commanded 3rd Brigade, 10th Mountain and was down in the southern part of Afghanistan back in 2010, 2011, and we are very appreciative of the 10th Mountain support.    You know, what I would tell you is that they will come in and they will work the train, advise, and assist. Force protection is our number one priority. The President has told me that is his number one priority.    I look at that every single day. We continuously monitor the threat streams both inside of Kabul and at all of our combat outposts and our TAACs. Every single day we are looking at ways on how we mitigate that threat.    You know, but frankly, it will continue to be a very dangerous environment. There will be insurgents that want to kill our soldiers. You know, we shouldn't make--we shouldn't put that aside. That is out there every single day.    So every day what we can't do is become complacent. We tell our soldiers, you know, that in a 9-month, a 12-month rotation that they have their--they will have an opportunity to make a difference.    It may only be 15 seconds where they make that difference in their entire tour when it comes in terms of force protection. The issue is they don't get to pick when that 15 seconds is, so they have to be ready all the time.    And I think the services do a great job and our noncommissioned officers do a great job of preparing our soldiers to understand the risk that will become when they do deploy. And again, many of our soldiers have been there numerous times; they understand that.    It is changing and we continue to take a hard look at that. The green-on-blue incidents that have been out in the news here the last several years, where we have Afghan soldiers or police attack coalition or attack U.S. members--that continues to get much less as we have mitigated that through our own training with different programs to provide over-watch. The Afghans do a much better job on vetting both soldiers and police in how they do their training.    So that has gone way down and we feel, you know, we can't get complacent. We will continue to look at that.    But believe me, ma'am, the force protection is utmost in our mind and we work that very hard in our pre-deployment training, and once they get into country they are continually reminded and go through processes that make sure that they don't become complacent.</t>
   </si>
   <si>
@@ -130,6 +169,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you, Mr. Chairman.    And thank you, General Campbell. I can tell you that when we went to see General Ghani he was so terribly appreciative of your efforts and all the efforts of our military and our support personnel. It was absolutely incredible.    I was also happy to hear from President Ghani that--of his relationship with the University of Nebraska at Omaha, and the--Tom Gouttierre and the Afghan studies program, which has been going on there for over 30 years. So I was glad to hear that.    And I want to thank Congressman Wilson, who is the chairman of our Emerging Threats Subcommittee, for his leadership, and also my two colleagues, who--it was an immensely important opportunity for me and I think our district to see what was going on.    Obviously we went to Jordan and Iraq and to Afghanistan, so we got the entire picture, in a way. And Congresswoman Stefanik I think asked a critical question that I was left with is--you know, we have many fewer members of the armed services in Iraq and--than we do in Afghanistan, and for historic reasons and for reasons that you have discussed.    Could I just ask you to comment just a little more on this situation? If the ISIS situation becomes more--it already is very dangerous, but where more troops from the American side are necessary, or whatever the eventuality may be, could you just comment a little bit more on that interrelationship?    President Ghani did talk about what you suggest, that they are observing, watching. He talked about his Pakistani--his openings to Pakistan and his discussions with Pakistan, which seem very, very positive.    But this threat in Syria and Iraq, which is growing and--but were contained to a certain degree, it is the same Middle East area, so how do you--again, could you just comment a little more on that interrelationship? What if it becomes more difficult for the Iraqi forces to be successful in their country? Thank you.    General Campbell. Sir, I can't comment on the Iraqi forces; I can comment on the Afghan forces. And again, they have--the senior leadership of the Afghan police and army have told me on several occasions that, you know, they will not let what happened to Iraq happen to Afghanistan. They are very determined about that, have gone out of their way to tell that to me as, you know, that question has been raised in many different instances with them, and as they talk to their leadership, as they have talked to the President.    The President brings this up, though, because he wants people to understand that the environment in Afghanistan continues to evolve. It is a dynamic environment and he doesn't want his forces to become complacent. He wants them to understand that what happened in Syria and Iraq and this network can jump stages of growing to this network, and that it evolves very, very quickly.    And so I think he just wants to make sure that his forces, his intelligence services are taking a look at everything and making sure that it doesn't get a foothold inside of Afghanistan and continues to spread. And he can be helped with this association with Pakistan because they have the same issues there, and I think that relationship and understanding that they have a common enemy that they can work toward together will help them.    So I think that they are looking at this very hard. He gets several security updates a day, and the Daesh or the ISIL piece continues to be on his mind.    But in the National Security Council meetings that I sit in he has all the senior cabinet folks in there, that is a point of discussion in most of them. But I think they view it as a potential threat and ensuring that they have a strategy as we move forward, and I think they will--that will continue to evolve over time.</t>
   </si>
   <si>
@@ -139,6 +184,12 @@
     <t>412640</t>
   </si>
   <si>
+    <t>Zinke</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Zinke. Thank you, Mr. Chairman.    And, General, it is always good to see you again. I tell you, I sleep better at night knowing you are there.    You know, as a former deputy commander and acting commander of special forces in Iraq, you know, I think we left Iraq too soon. I think we--when we left Iran or Iraq on a timeline rather than a condition on the ground, it affected the Sunnis; we disenfranchised them, I believe. We isolated the Kurds.    We, to a degree, empowered a centralized government to be non-inclusive. And the result was a vacuum. And that vacuum, I think what we are seeing today, was filled by ISIS.    And my concern is we don't repeat the same model in Afghanistan, and I think the concern of the committee remains the same.    Looking forward, what would you consider to be your three priority conditions, and what is that end strength to support that?    And lastly, in my experience, having a detention center--at least a temporary detention center--gave us the ability to rapidly turn around sensitive site exploitation and do follow-on missions in a timely manner that made a difference on the ground. And not having the ability to have a detention center--at least a temporary detention center--to me would adversely affect your ability, when you find a target, to rapidly turn around and do follow-on missions. If you would comment on that, whether, in fact, it does adversely affect your ability to turn around?    General Campbell. Sir, thanks for your service, and thank you for the questions, as well.    If I can answer the last one first, then come back to the ISIL piece on the intelligence. So intelligence, as you know, drives operations, and that is what we really try to instill in our Afghan partners, that all their operations should be intelligence-based, and we continue to work that very hard.    We do have a very good relationship with the MOI and the MOD, and the NDS [National Directorate of Security], which is their intel [intelligence] service. And so as they have the detainees, we work a relationship to make sure that we can partner with them, and the intelligence, the information they get from their detainees, we try to make sure that we can get that information as well, because it impacts our force protection and we can also help guide them.    They are building a fusion cell, which combines the MOD, the MOI, and the NDS together--lessons that we have learned over years and years. They are stove-piped where they are now, and so you have MOI working off different pieces, MOD working off pieces, and NDS working off pieces. And what we are really trying to force is this sharing.    They are testing this really with a pilot down in northern Helmand in this operation today, and we are seeing quite good success off of this as they do share all that intelligence and understand that it makes them a better-capable force as they get this intelligence, turn it very quickly to drive to other targets. So I think our relationship over the last 13-plus years of working with them at the ministry levels now and at the corps levels, we have a relationship to enable to make sure that we can help them with that intelligence. So I feel comfortable where we are at.    Still got a lot of work to do with that. They don't have the same type of ISR or those platforms that provide us some of that. We share where we can, but we have got to make sure we continue to build their capabilities.    So we are working on how we build the intel capability. Intelligence is one of the eight essential functions that we continue to build at all the ministry levels. My senior deputy chief of staff for intelligence, the J-2, Major General Scotty Berrier, was a CENTCOM J-2 before this assignment. He really is the senior intel advisor that I have in country and he works with both the MOI and MOD to build that intel capability.    So I feel much better than where we were on building that, and I think that is going to help all of us in the end.    On the ISIS piece, sir, on conditions, you know, I take a look every single day and assess different conditions. Time is one of those conditions, number of people on the ground, both from a coalition perspective and from an Afghan security institution perspective is another condition.    So I think I would take a look at all those. I really do want to take a look at what happens after this first full fighting season, where the Afghans are really totally on their own. They have led it for the last 2 years but this is the first time that they really are on their own and we really are just in the train, advise, assist and don't have the resources to provide for them, and they are working very hard on their own capacity for close air support, intelligence, and those areas.    And so, you know, I can't give you a number that I would feel comfortable with right now. I think I need to let this play out.    But I do believe that we are--the best thing that we can do to hedge against Afghanistan not becoming an Iraq, my number one priority would be to continue to train, advise, assist, and build their own capacity and their capability both in close air support, both in their special operating forces, which increases their CT capability. And they want to be--and President Ghani has said many times, you know, he is a strategic partner and wants to continue to build the Afghan CT capability so down the road they have that, and then we will continue to work with them on that.</t>
   </si>
   <si>
@@ -151,6 +202,12 @@
     <t>412620</t>
   </si>
   <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t>Gwen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Graham. Thank you, Mr. Chairman.    And thank you, General. It is so good to hear some good news of--so thank you for your report.    One thing that you stated is that the terrorist appeal has been undercut in Afghanistan. That is something that we need to figure out how do we bring that reality into other places in the region.    But my question focuses on local law enforcement. I am aware that recently that Prime Minister Ghani has changed some of the leaders of the local police forces, and I was wondering, what is the interaction between military and law enforcement?    My husband happens to be law enforcement, and I know how important it is to have that close relationship. It is often those closest to us that can have the greatest impact on our behaviors.    So is the military involved in working with local law enforcement, and do you see that as a positive development with the changes in law enforcement recently in Kabul? Thank you.    General Campbell. Thank you, ma'am, for the question. You know, in Afghanistan it really is--we talk about pillars and the security pillars, and the police and the army being two different pillars there. And what I tell people is when these pillars--they do cross-pillar coordination, they work together, the army and the police, then they are much stronger and they can't be beat.    And I attend a Saturday 3-, 4-hour session every Saturday, which we call the senior security shura, and that has the senior members of MOD, the senior members of MOI, NDS, which is their intel arm, and then the national security advisor, Minister Atmar. And so the police and the army interaction is daily, every single day.    The police operate a little bit differently. They do have the law enforcement aspect; they continue to work through that. But in many places they are the only security institution in the far reaches of Afghanistan, and so they are a threat to the insurgency.    Afghan Local Police, which are designed to provide security inside of the villages, are probably the most attacked. They have the least amount of training, they don't have the same weapons as the regular police or the army. And so they do get attacked, but they do stand up and they do protect, and they are feared by the Taliban and the other insurgents because they are directly linked to the people inside the communities.    But I think the linkage between the police and the army is a strong one and they continue to work it.    In the provinces they have what they call OCCPs or OCCRs. These are institutions that the governors have that have police, army, and the intel folks all together inside one, for lack of a better term, an operational command and control element at both the regional and then at the provincial level.    And they provide interaction between the police and army. They sit right next to each other in desks and work that, and then they interact with their higher headquarters, which also has police and army.    In my headquarters inside of Kabul I have army--Afghan army representatives, Afghan police that sit right next to each other inside of my combined joint operations center, as well. So that interaction is very good.    And if I could just hit the intel piece or the terrorist appeal piece, what I will tell you is that less than 10 percent of the people in Afghanistan embrace the Taliban, and that number continues to go down. And a lot of that is because of the actions of the Taliban, and they understand that the civilian casualty piece--although a report said something like 75 percent are caused by the insurgents, you know, our records show potentially above 90 percent are caused by the terrorists, and the people are just frankly tired of this.    And they want a better life--they want the exact same thing we want. They want to be able to send their kids to school. They want to be--have a roof over their head. They want to have a job to provide for them.    And so they understand that underneath this national unity government--85 percent of the people want this government, they want it to do well, and they are tired of what--the Taliban and what they represent. That is a big change from where we were just a couple years ago.</t>
   </si>
   <si>
@@ -160,6 +217,12 @@
     <t>412538</t>
   </si>
   <si>
+    <t>Walorski</t>
+  </si>
+  <si>
+    <t>Jackie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Walorski. Thank you, Mr. Chairman. Thank you, General, for being here.    My question is, I think it has been fairly disconcerting--it has to me, anyway--of how much information, when it comes to operational security, the President of the United States has given out and how we read it every day in the media. We learn about the withdrawal, the troop size; we learn, as the Taliban does at the same time, all kinds of unbelievable information.    And to kind of follow up on my colleague's comment--and I really don't want to ask you this for public disclosure, but I want to ask you for this either in writing or a classified briefing. I want to know the detailed Plan B. What are the flags and the signs that are going to trigger our reengagement, should this go awry?    I really do want to know, because I want to know that we do have a plan. And I don't want to ask it in public for everybody in the world to listen, because it really does concern me, but I would ask for you to provide that in writing or a classified briefing. What are we looking for that is going to happen so we don't end up again with more loss of blood and life and an engagement for America, as we are looking at in Iraq?    [The information referred to is classified and retained in the committee files.]</t>
   </si>
   <si>
@@ -184,6 +247,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>O'Rourke</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. O'Rourke. Thank you, Mr. Chairman.    General, I would first like to thank you and those who serve and have served under you, including the Bulldog Brigade from Fort Bliss in El Paso, Texas, for the incredible job that you are doing and have done in Afghanistan. And I join my colleagues in just thanking you for this terrific performance, which goes beyond any claims that someone could made or anecdote, but actually by the numbers and by the pictures and what we can see and what my colleagues were able to see in their recent visit.    And I agree with many of the comments made so far that I think there are many lessons that we can apply from your success, this country's success, in Afghanistan to our operations and objectives in Iraq.    When it comes to the proposed AUMF that we are considering to combat ISIS, my understanding that the immediate goal is to stop ISIS and ultimately to degrade, defeat, and destroy ISIS. What is our goal in Afghanistan relative to the Taliban?    General Campbell. Sir, thanks. And I really do believe that, again, on the AUMF--I have to look at that harder and look forward to other questions in maybe a closed setting and we can talk through that on the resources that we have to be able to do that.    Sir, on the Taliban piece what I would tell you is our goal really is to build the Afghan capacity, both in their police and in their army, to be able to have a secure, stable Afghanistan for the future. And the Taliban and their message, you know, is not having any traction with the Afghan people.    As I said in my opening comments, it really is time now for the Afghan Taliban to take a look at what they are trying to do and become part of the political process. President Ghani, in his inauguration speech, opened the door there for them to come back and really work hard on reconciliation, which could potentially be a game-changer down the road. But, you know, that has to work with Pakistan and where they go, and where Afghanistan is, as they continue to build their Afghan security force capability.    But I do believe that, you know, they want to get the Taliban to where they are part of the Afghan vision moving forward, and killing other Afghans is not part of that vision. And so they have to operate from a position of strength, and I think 352,000 Afghan security forces and another 30,000 Afghan Local Police give them that capability.    And the Taliban now are looking around and saying, ``You know, the coalition forces, they have signed a BSA [bilateral security agreement], a SOFA [status of forces agreement]; they are going to continue to help and provide train, assist, and advise--you know, what we have been trying to do here for the last year. We have got to cut this out. We have got to come in.''    And so I think that is really where we are going with the Taliban, but is because the Afghan security forces are going to drive this, not the coalition.</t>
   </si>
   <si>
@@ -196,6 +262,12 @@
     <t>412567</t>
   </si>
   <si>
+    <t>Bridenstine</t>
+  </si>
+  <si>
+    <t>Jim</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Bridenstine. Thank you, Mr. Chairman.    General, the President's stated policy is to take our strength from 10,800 troops in Afghanistan down to 5,000 troops by the end of 2015. In your best professional military judgment, is that the right end strength at the end of 2015?    General Campbell. Sir, it is about 5,500, half of--somewhere around 5,500 by the end of December, and again, the options that I provided I think provide flexibility both for President Ghani and as the commander on the ground to take a look at force protection and how to get after the train, advise, and assist.</t>
   </si>
   <si>
@@ -226,6 +298,12 @@
     <t>412579</t>
   </si>
   <si>
+    <t>Veasey</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Veasey. Thank you, Mr. Chairman.    I wanted to ask the general a couple of questions based on the popular opinion poll that he gave us here, and it was talking about Afghans expressing confidence in their new government.    Do you have any sort of sense of how Afghans feel as far as confidence is concerned with Afghan capability post-U.S. or U.S.--post-U.S. drawdown?    General Campbell. Sir, again, it is--you know, like anything else, I think they understand the capability that just having the coalition with them provides, and a lot of it is just giving them some confidence.    You know, as I have taken a look on close air support--I give you that as an example that I get asked a lot of times, ``I need close air support. I need close air support.''    What I tell the Afghans is, ``Don't plan your operation wholly dependent upon close air support. You have the capability. The Taliban doesn't have close air support. The Taliban doesn't have up-armored Humvees. That Taliban doesn't have [122 millimeter] D-30 howitzers. The Taliban doesn't have, you know, the weapons that you have.''    So a part of it is just leadership again, and then really having the confidence to take this fight to the enemy. But if you go out on the streets of Kabul and you engage with, you know, 85 percent or 80-plus percent of the people, they would tell you they are thankful for the coalition, that they want the coalition around.    I think they are more comfortable if they have a coalition because it knows, you know, one, from helping out the security forces; it also provides them the opportunity to engage, have jobs, and that kind of thing. So I think they would tell you that they feel comfortable with the coalition presence.</t>
   </si>
   <si>
@@ -238,6 +316,12 @@
     <t>412513</t>
   </si>
   <si>
+    <t>Cook</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Cook. Thank you, Mr. Chairman.    General, first of all, I want to commend you on your testimony, your years of service in combat, peace, the--can't even add up all the deployments you have been through, and I--what I wanted to address is something that isn't here, and it is of concern to our NATO partners, maybe under the radar, and that is the situation of the poppy and the drugs and the corruption that, from a rational viewpoint, it affects Europe.    How are we doing on--can you comment on the status of that and where it is going right now?    General Campbell. Sir, thanks for the question.    There have been a lot of different reports on the cultivation of poppies and what--the impact that it has financially for the insurgents in the area, a lot of that coming out of the Helmand area. Media reports will say that has increased over the last couple years as opposed to going down.    Trade is a concern to President Ghani. He has talked about it. He is looking hard at a strategy on how he goes after that and deals with the people that produce it, that deals with the insurgents that use it for their gain.    They have looked at different options down there. They do have quite a good record of a small task force that goes after and seizes different places and, for lack of a better term, drug labs that produce what comes out of there. But, you know, quite frankly, you know, it has not been enough and the strategy there has not taken that away from the insurgents.    That is not part of my TAA or part of my CT mission, so I can't comment, you know, further on that piece of it. But bottom line, it does provide, you know fuel, financial assistance to the Taliban, and we have to take--and the government of Afghanistan is looking hard at a holistic look at how they can combat that.</t>
   </si>
   <si>
@@ -253,6 +337,12 @@
     <t>412533</t>
   </si>
   <si>
+    <t>Duckworth</t>
+  </si>
+  <si>
+    <t>Tammy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Duckworth. Thank you, Mr. Chairman.    General, thank you for being here today.    At a time of sequestration, when we are cutting our funding for U.S. forces here in the U.S. and looking at everything from shutting down commissaries on bases to adjusting retirement benefits for our forces, we are looking at our future expenditures in Afghanistan. Now, I have concerns that we have sufficient oversight with how the Afghans are spending the money that we are providing them with the resource. And specifically, you had mentioned, you know, their lack of self-sustaining capability, logistical capability.    I would like to look specifically at their ability to account for personnel. We talked about already the over 20,000 troop attrition in the Afghan forces that has been reported.    You know, I rely on the Special Inspector Generals for Afghanistan Reconstruction's [SIGAR] reports as to what is going on there and I see that there have been some real concerns. I mean, the numbers of Afghan military and police forces fluctuate significantly, sometime from quarter to quarter by as much as 20,000 or 40,000 personnel.    And I am worried that we are spending this money, we are not spending as much on our own U.S. forces here, we are spending money there, but, you know, those 40,000 troop fluctuations, are those best case scenario an accounting error? Those folks were never there, or they quit? Or were we paying for folks that were never there--ghost soldiers, as you were, that were on the books?    So can you talk a little bit about how we are providing oversight for the Afghans and help to them to figure out how they can get a handle on their forces and how they are spending this money that we are providing?    General Campbell. Yes, ma'am. Thank you for your service, as well.    You know, that is always a very, very tough, complex thing to get your hands around. People in our own Army, as you know, we have a hard time sometimes figuring out exactly who is present for duty, who is not.    Many of the figures I think you have seen in the last several days on numbers--you know, first off, we need to make sure that SIGAR and Members of Congress have total transparency on everything that we are doing inside of Afghanistan, and I want to make sure--and we are committed to provide SIGAR and, again, Congress everything they need to do that.    Some of the things are classified, and I--and back in August timeframe--so this is not a new story, but back in August when I got there I asked that we take a holistic look at all the information that was going out to not only the SIGAR but to the press and everybody else, and I said, ``Anything that is readiness data''--and sometimes numbers of people and how you take a look at that could be construed as readiness data--but I said, ``Anything that is readiness data for the Afghans needs to be classified.'' We just can't put that out, for the Afghans' good and also because we are wholly dependent upon the Afghans now for our own force protection. It became more so that I needed to have the readiness data classified.    The U.S. Army's readiness data is classified. All of our services' data is classified, as you know.    So that decision was made in August. I reaffirmed with President Ghani--in fact, he approached me about having that kind of data classified. And again, here in the last probably 2 weeks or so I went back to him and said, ``I want to make sure you are comfortable, because I am getting asked a lot of questions on this.''    He was absolutely adamant that Afghan data that pertained to readiness data was classified. So I feel very comfortable where we are at.    And I have not, as has been reported in some media, changed my mind. I have not. Readiness data remains classified.    Now, on the numbers of people--and again, the last report that came out a couple days ago from SIGAR, I think what happened there--and there is--again, I want to make sure SIGAR has everything they need to do their job and Congress has that information, as well. But I think numbers reported and numbers where you get that information comes from many different sources, and there is a report, called the 1230 Report, that Congress has dictated that I give, and that is sort of the--that is the base line, and that is where the numbers need to come from. And I think SIGAR understands that as well.    But I think some of the reports you saw and where the discrepancy were were like quarterly reports, and they may not have even come from my headquarters but they came from maybe lower headquarters, where members of potentially SIGAR went down to a lower headquarters, said, ``Hey, what are your numbers?'' And so we have to do a much better job at my headquarters to make sure that we have processes in place that we can provide the right data at the right time, but we have to have a better procedure to do that.    And we are working on that. I just signed a standard operating procedure to consolidate how we work that.    We have over 50, probably 62 different audits going on inside of Afghanistan, from SIGAR to AAA [Army Audit Agency] to DODIG [Department of Defense Inspector General]--60-plus. And so as we have transitioned and brought our numbers down, I don't have the people in country to do all of that.    I am dependent upon reach-back or other ways, and we have got to come up with a way to be able to figure out how we provide audit data, but at the same time continue to transition. And I don't have that capability. I have to raise that with my own leadership as we go forward.    But the numbers that I think you saw the last couple days, I think there is a miscommunication. When I learned through The New York Times, not through SIGAR, that these numbers are going to be replaced, I contacted John Sopko with SIGAR and said, ``Hey, we need to take a hard look at this data you are getting ready to release. I don't think it is right.''    So I alerted him to that, they stopped the release of that piece. And again, we are looking hard at how we can continue to work making sure everybody gets the right data. Hopefully that got to your question.</t>
   </si>
   <si>
@@ -262,6 +352,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    General, thank you for being here.    If there is one thing we have learned over the last several months it is that the people of a country have to be willing to hold that country, and I am speaking specifically of Iraq. Afghanistan obviously a very different country. I think that from the context of the American citizen that maybe the way it is talked about the perception is it is all one and the same issue, if you will.    And I do think that we need to do a better job of getting that message out when we do have the victories, because all America is hearing right now is the bad that is happening in the Middle East. So thank you for your service.    I want to talk with you about one of the issues that you have talked about a couple of times: close air support. Obviously, in order for Afghanistan to be a success they have to be able to hold that country from the Taliban and other terrorist organizations when we are hopefully completely out of there.    The Afghanistan Air Force, the A-29 [Super Tucano] light air support mission right now is currently--they are being trained at Moody Air Force Base in Valdosta. If you could just speak to the--that element, how critical it is, the air support and Afghanistan's being able to carry out their own air support long term, and then how many A-29s do you expect we should be prepared to provide for the Afghanistan Air Force?    General Campbell. Sir, thanks for the question. And again, we are very thankful in Georgia that they have that capability to provide the training for the A-29s. It is a very long process. You know, looking in hindsight, I wish we would have started that years ago and we would have that capability now, but we are where we are and I think what is happening there--training the pilots, training the maintainers for this fixed-wing close air support capability--is critical for Afghanistan and their air force as we move to the future.    You know, quite frankly, we can't get it quick enough for them. The current program has about 20 aircraft over the next 3 years that will come to Afghanistan.    We won't have any for this fighting season 2015. We will get some at the end of the year, a couple more before start of fighting season 2016. But most will come out in 2017 and then in 2018. So that is another reason we need to continue to have this train, advise, and assist for the next several years, working at least on the air force piece.    But it is a great, great capability. They are looking forward to it. And I think it will give them, and the people in that region will understand, that the Afghans have this great close air support capability.    We are working other ways to work that here in the near term with forward-firing machine guns under Mi-17s, with MD-530, this Little Bird I talked about. And again, they do have indirect-fire mortars, 120 mortars, D-30 howitzers that will continue to work with them on different ways to improve that capability. But this is a huge asset they are looking forward to getting inside of Afghanistan.</t>
   </si>
   <si>
@@ -271,6 +367,12 @@
     <t>412193</t>
   </si>
   <si>
+    <t>Courtney</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Courtney. Thank you, Mr. Chairman.    And thank you, General, for your endurance and service.    Tomorrow night at the state armory in Hartford there is going to be a sendoff for the Connecticut Army National Guard 192nd Military Police Battalion, who are heading off to Afghanistan. And, you know, first of all, they were given notice almost 60 days ago to the day that they were being sent over. And I realize this is not sort of in your lane in terms of, you know, making the decisions about, you know, reaching into Guard and Reserve units.    You know, what I would say is that, frankly, there are folks who are kind of scratching their heads that if we are at a force level of about 10,000, you know, Guard and Reserves--there was, I think, an understanding and an acceptance back during the surge days, you know, when we had hundreds of thousands of people over in the Middle East--you know, tapping into the Guard at this point, and frankly, doing it with almost the bare notice required by law, is something that, again, folks are struggling with.    And so first of all, I guess I would ask you--and I don't mean to put you on the spot, but if you were in front of those families tomorrow night, you know, what you would share with them. And I am not asking you to, you know, explain the decision-making process, because I realize that that happens somewhere else, in terms of your command.    But again, as their leader over in Afghanistan, you know, what would be your thoughts that you would share with the families?    General Campbell. Sir, thank you. And again, the Army--all of our service could not do what we do without our military families. So I would first thank them for their sacrifice, for having to allow us to have that soldier continue to serve.    I would tell them that what they are getting ready to do, you know, two things--is a very, very important mission, will mean a great deal to the Afghan people but also provide for our own security back here.    I would ask them to watch out for each other and always take care of brothers and sisters on their left and right to make sure that force protection is always foremost in their mind. I would ask them never to get complacent. But that they do have a very, very important job.    You know, many times when I tell the soldiers, airmen, sailors, marines over there that sometimes you are too close to it; they can't see some of these changes we talked about earlier, and they--you know, people serve for different reasons, but they do serve because they know that they are serving for the greater good. And when they come to Afghanistan I tell them, you know, ``Whatever you do, make that place better than when you found it,'' and I think I have seen over the years everybody continues to do that.    They will have an impact on whatever they do and whoever they touch. And again, sometimes this is an impact that they can't be able to put into words, but I would just tell you their service would be honored and that they will feel good about what they have done after they leave there.    I can't speak to the service provider piece, that only that, you know, for many, many years our National Guard, our U.S. Army Reserve have played an important role both in Iraq and Afghanistan and will continue as we move forward. And so I appreciate their service.</t>
   </si>
   <si>
@@ -280,12 +382,24 @@
     <t>400209</t>
   </si>
   <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Walter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Jones. Mr. Chairman, thank you. And, General Campbell, thank you and your staff for being here today.    And I am going to take a little different approach. I looked at your narrative and the comment by Senator Levin, who is now retired, and says, ``I just cite these public opinion polls--Americans, 65 or 70 percent think we haven't achieved anything.'' And then he is critical of the people that don't think we have achieved anything by saying at the end of it, ``And the people who are 7,000 miles away think we haven't?''    You know, well, I would say to the Senator, it is those people back home that are paying the bills. They need to get something out of the tax dollars that they are paying.    When we went into Afghanistan in 2001 the debt of our Nation was $5.95 trillion. Today it is over $18 trillion in debt. And you know from your brothers and sisters in the military what we are faced with with budgets.    All right. Then I read in a blog from yesterday by Jason Ditz--D-I-T-Z--between casualties and desertion, Afghan military is shrinking fast. ``The desertion problem is a longstanding one, with many Afghans signing up for the military, sticking around long enough to get their first paycheck, then bailing, and often taking their weapons with them as a sort of severance package.''    Then in The Guardian yesterday, ``Afghan Officials Sanction Murder, Torture, Rape, Says Report.'' Now, I realize that this is from Human Rights Watch, and we can have our views on that, whether it is a liberal group or a conservative group or whatever. That is fair. But they still write this, and apparently there has been no dispute.    And I will read just one paragraph: ``The report focuses on eight commanders and officials across Afghanistan, some of them counted among the country's most powerful men, and key allies for foreign troops. Some are accused of personally inflicting violence, others of having responsibility for militias or government forces that commit the crimes.''    I know some good things are happening. I don't question that at all. But where--Afghanistan has been proving in history it is the Wild West.    What my concern is that we have got 9 more years of a financial commitment and a military commitment, which might be limited in numbers but they are still young men and women over there walking the roads to be shot at and have their legs blown off. I just wondered, because we in Congress are going to be grappling with sequestration this year.    The chairman and ranking member, who are doing a great job, are very concerned about the military budget, and I think all of us here are, as well. I know I am. I have Camp Lejeune down in my district and Cherry Point Marine Air Station.    But I get to a point that I just wonder--not talking about you, sir; you are an outstanding, great military person--but will there ever be anyone in the diplomatic corps or the military that say, ``You know, we have done about all we can do?'' Some things are impossible.    Yes, some people will benefit, but when I read reports like this, whether they be from the left or the right--Pat Buchanan is one of my biggest heroes. Ron Paul is one of my dearest friends. And I continue to see 9 more years of spending money that we don't have so we can decrease the number in our military.    It doesn't make any sense. I know you don't make the policy decisions. I understand that.    But will there ever be someone who follows behind you and follows behind me that will be honest to the Congress and the American people who have to pay the bill that we have done about as much as we can do?    General Campbell. Sir, thanks for the question.    Sir, I would answer like this: Again, you know, quite frankly, this is the world we live in, not maybe the world we want. And I think the complexity of the world we live in is a generational piece that is going to go on long after you and I are out of here, and we need to understand that and look at it as a generational issue and put strategies and policies in place that will get at this long-term.    So it is not going to change overnight, and I think we just have to change our mindset on where we are at. And I think the American people are well served by the great men and women who continue to raise their right hand and serve, knowing that they can go into harm's way, knowing that despite trying to do something bigger than themselves, that they are going to face going into a service that is going to have budget issues that is going to take away.    And so I think this is a long-term issue we have to get at.    But what I am pleased about is that, you know, you mentioned all those different reports there, and there are challenges, not only in Afghanistan but many places in the world. I do see Afghanistan as a place, because of the significant investment in lives and in financial that we have provided to them, that this can be the bright spot, that this is, for lack of a better term, a strategic win that will carry on in this part of the world that is a very complex, dangerous part.    And for very little continued investment, we can make this the shining light of Central Asia and that part of the world. And I think, you know, we have got to start someplace, and Afghanistan is the good news story among all these other bad things that are coming out.    And for every bad news report you just mentioned there, sir, there are probably 9 or 10 good news that do not get out because, as you know, good news doesn't sell. What I have had to do is take--I give President Ghani a good news story storyboard that I collect each week.    I have my commanders provide me a good news storyboard that talks about the good things that Afghans are doing in different areas, and when I meet with him I say, ``Mr. President, Dr. Abdullah, here are some good news stories. You are not hearing about it in the news but you need to know this is happening.''    And I give them 10 or 15 PowerPoint slides with pictures showing good news story in Afghanistan, and that word just doesn't get out because it doesn't sell. But believe me, sir, for every VBIED [vehicle-borne improvised explosive device], suicide vest that went off in Kabul, there are 9 or 10 that are stopped.    And so there is good news out there.    The Chairman. Gentlelady from Guam, Ms. Bordallo.</t>
   </si>
   <si>
     <t>400041</t>
   </si>
   <si>
+    <t>Bordallo</t>
+  </si>
+  <si>
+    <t>Madeleine</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Bordallo. Thank you very much, Mr. Chairman.    General Campbell, thank you for your challenging leadership in Afghanistan.    I want to quote the 2015 National Security Strategy in saying, ``We must recognize that a smart national security strategy does not rely solely on military power. Indeed, in the long term our efforts to work with other countries to counter the ideology and the root causes of violent extremists will be more important.''    I strongly support this approach, General. However, I am also concerned that the persistence we have shown in Afghanistan and our presence there can have harmful effects on our long-term readiness.    As we draw down to a force capable of protecting our security interests in the region, how will we capitalize and re-utilize the equipment--and I know this was brought up earlier--that we currently have in-country to protect the readiness of our total force? Specifically, can you comment on retrograde efforts, as they are supported in the fiscal year 2016 budget, and what impact sequestration would have on this effort if sequestration is not repealed?    General Campbell. Thank you, ma'am. And thank you for your visit last fall, as well.    I haven't looked at the numbers for the retrograde portion for fiscal year 2016. I would tell you that we will continue to need the necessary resources, the financial piece to bring back the retrograde that we have in Afghanistan so that we can put that back into the force here. Probably 80 percent of that now is for the Army.    But the very best equipment that we have is in Afghanistan, so we need to continue to make sure we get that back, get it reset, and get that into the force.    I do think that we are on glide slope to do that. We had some concerns, you know, a year, year and a half ago, but as a vice then now as a commander on the ground, I don't have those same concerns and we will continue to get that back to the Army.    Sequestration, from a different perspective, I think will impact the readiness of all of our services. And again, that is why I think all the service chiefs, the chairmen have come out, as you know, and said that it would have a really, really bad impact if we go to sequestration--on readiness.</t>
   </si>
   <si>
@@ -298,6 +412,9 @@
     <t>412564</t>
   </si>
   <si>
+    <t>Wenstrup</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Wenstrup. Thank you, Mr. Chairman.    General Campbell, thank you so much for your service and taking on the mission that you are taking on. And it is encouraging to see the positive that we don't often hear about.    I would agree with you wholeheartedly, I think it was a great move by Ghani to sign a BSA and the SOFA. That bodes well for all of us. And I think it was probably wise, from where I sit, for Ghani and Abdullah to come together as governance partners.    And so my question to you is, what are you seeing as far as that relationship between the two of them and its effect on any national unity in Afghanistan?    General Campbell. Sir, thanks. That is a great question.    I look at this every day and I do think that both President Ghani and Dr. Abdullah gave up some to make sure that they can continue to have Afghanistan as a nation continue to move forward. They both did that after a long period there.    As they work together and as I see both of them many times, both together and then separately, I think they complement each other as they work together. They both have great vision for where they want to take Afghanistan.    And, you know, it is--it really is a people around each of them I think that they have to continue to work through, and they have run into instances where they have had differences, but I think they work hard to make sure as they come out to the public that they have one voice as they move forward. That is not easy all the time, but I think they understand how important it is so they work toward that, both from a security perspective and then from an economic perspective.    But again, I think they complement each other and I am honored to have the opportunity to engage with both of them quite a few times every week.</t>
   </si>
   <si>
@@ -320,6 +437,12 @@
   </si>
   <si>
     <t>412254</t>
+  </si>
+  <si>
+    <t>Tsongas</t>
+  </si>
+  <si>
+    <t>Niki</t>
   </si>
   <si>
     <t xml:space="preserve">    Ms. Tsongas. Thank you, Mr. Chairman.    And thank you, General, for hanging in here. I have appreciated very much your knowledge and very nuanced testimony.    I want to follow up on Congresswoman Bordallo's last comment. As a Member of Congress I have made six trips to Afghanistan, and four with a delegation of women--generally three Republican congressional--Congresswomen and three Democratic Congresswomen.    And our goal really has been twofold. It has been over Mother's Day, so to thank our women soldiers. Often we commiserate with them, know how hard it is to be away from home on Mother's Day, as it is for all of those who are serving.    But we have also had the real opportunity to see the gains that have been made for women in Afghanistan. And while they are not as widespread as we would like, I think Kabul has been a prime beneficiary of them, but--and other urban settings--but nevertheless, those gains have been real and your report showed that, in terms of health care, access to education, a whole--access to work, although--however, limited.    So as we are drawing down, our concern really is that those gains are not somehow traded away. And as you have talked about President Ghani's reaching out and referencing the Taliban in his inaugural speech, I can tell you that as we meet with women over there those comments send chills through them because we know how terribly they suffered under the Taliban regime.    And so I think our concern, our bipartisan concern, has become, you know, how do we protect the gains that have been made? And as we have talked today about some of the differences about Afghanistan and Iraq, it seems to me that one of them has really been the signing of the bilateral security agreement, and that it has set up a very different framework and I think has given us leverage, a role in Afghanistan as it transitions to its next phase.    So I am curious--while the security situation is really your role and many of these other gains have been investments that have come about through other parts of our presence there--how you see the United States' role using its ongoing relationship with the government to make sure that, let's just say negotiations do go forward with the Taliban, how we make sure, how we use our leverage there, how you use your leverage, representing the United States, to make sure that women's gains remain on the table and they are somehow not traded away as others argue for a path forward in which the Taliban are brought into the government?    General Campbell. Ma'am, thank you for your visits. Thank you for your question.    Again, I think leadership has a big deal here to play. I think, again, the difference here is that President Ghani and Dr. Abdullah are very committed to this. It is written in their constitution, and so as they work with the Taliban, if there is reconciliation down the road, I think one of the key parameters there will be is that the constitution will hold, and inside the constitution it talks about respect of women's rights.    Again, I think with the first lady, with President Ghani, with Ambassador McKinley and his team at the embassy, with the 30, 40-plus ambassadors I interact with periodically, they all have this upmost in their mind. It comes up in different settings, different meetings I am at.    And so, you know, it is sort of a drum beat that President Ghani, Dr. Abdullah, senior leadership, and then the other ministries continue to hear, and they understand how important it is that they abide by, you know, their constitution and where they want to go.    So I think leadership will make a difference, and I understand that in my realm, in the security realm, what we are--what we have changed now is everything is conditions-based. And so we sign letters of commitment to provide finance, to provide fuel, on and on and on and on.    And I think this is where the same ways we look forward in this area that it could be conditions-based, and everything that we continue to do through different NGOs we make conditions-based and they abide by their constitution, and I think the leadership can make that happen over there.</t>
@@ -677,7 +800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -685,7 +808,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -707,1757 +830,2119 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
       <c r="H3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
       <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>31</v>
+      </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
       <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>30</v>
+      </c>
+      <c r="G13" t="s">
+        <v>31</v>
+      </c>
       <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
       <c r="H14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G17" t="s">
+        <v>37</v>
+      </c>
       <c r="H17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="I18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
       <c r="H19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
       <c r="H20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>44</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
       <c r="H21" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G22" t="s">
+        <v>51</v>
+      </c>
       <c r="H22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>50</v>
+      </c>
+      <c r="G23" t="s">
+        <v>51</v>
+      </c>
       <c r="H23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
       <c r="H24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
       <c r="H25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>40</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>55</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
       <c r="H26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
       <c r="H27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
       <c r="H28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
       <c r="H29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G30" t="s">
+        <v>67</v>
+      </c>
       <c r="H30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G31" t="s">
+        <v>67</v>
+      </c>
       <c r="H31" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
       <c r="H32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>47</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G33" t="s">
+        <v>67</v>
+      </c>
       <c r="H33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G34" t="s">
+        <v>67</v>
+      </c>
       <c r="H34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="G35" t="s">
+        <v>67</v>
+      </c>
       <c r="H35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I35" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s"/>
-      <c r="H36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" t="s"/>
+      <c r="I36" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G39" t="s">
+        <v>82</v>
+      </c>
       <c r="H39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G40" t="s">
+        <v>82</v>
+      </c>
       <c r="H40" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>59</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G41" t="s">
+        <v>82</v>
+      </c>
       <c r="H41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G42" t="s">
+        <v>82</v>
+      </c>
       <c r="H42" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>59</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>82</v>
+      </c>
       <c r="H43" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>59</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G44" t="s">
+        <v>82</v>
+      </c>
       <c r="H44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G45" t="s">
+        <v>82</v>
+      </c>
       <c r="H45" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G46" t="s">
+        <v>82</v>
+      </c>
       <c r="H46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>81</v>
+      </c>
+      <c r="G47" t="s">
+        <v>82</v>
+      </c>
       <c r="H47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>69</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G48" t="s">
+        <v>94</v>
+      </c>
       <c r="H48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G49" t="s">
+        <v>94</v>
+      </c>
       <c r="H49" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>93</v>
+      </c>
+      <c r="G50" t="s">
+        <v>94</v>
+      </c>
       <c r="H50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>95</v>
+      </c>
+      <c r="I50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G51" t="s">
+        <v>100</v>
+      </c>
       <c r="H51" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G52" t="s">
+        <v>100</v>
+      </c>
       <c r="H52" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G53" t="s">
+        <v>100</v>
+      </c>
       <c r="H53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>100</v>
+      </c>
       <c r="H54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
       <c r="H55" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
       <c r="H56" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>81</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
       <c r="H57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I57" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="G58" t="s">
+        <v>112</v>
+      </c>
       <c r="H58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>113</v>
+      </c>
+      <c r="I58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G59" t="s">
+        <v>117</v>
+      </c>
       <c r="H59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>116</v>
+      </c>
+      <c r="G60" t="s">
+        <v>117</v>
+      </c>
       <c r="H60" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>118</v>
+      </c>
+      <c r="I60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="G61" t="s">
+        <v>122</v>
+      </c>
       <c r="H61" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>123</v>
+      </c>
+      <c r="I61" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G62" t="s">
+        <v>126</v>
+      </c>
       <c r="H62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I62" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G63" t="s">
+        <v>126</v>
+      </c>
       <c r="H63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>125</v>
+      </c>
+      <c r="G64" t="s">
+        <v>126</v>
+      </c>
       <c r="H64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>127</v>
+      </c>
+      <c r="I64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>93</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
       <c r="H65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>93</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
       <c r="H66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I66" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>93</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
+      </c>
       <c r="H67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>93</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G68" t="s">
+        <v>132</v>
+      </c>
       <c r="H68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I68" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>93</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G69" t="s">
+        <v>132</v>
+      </c>
       <c r="H69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>93</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
       <c r="H70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
       <c r="H71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G72" t="s">
+        <v>141</v>
+      </c>
       <c r="H72" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>101</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G73" t="s">
+        <v>141</v>
+      </c>
       <c r="H73" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>142</v>
+      </c>
+      <c r="I73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>140</v>
+      </c>
+      <c r="G74" t="s">
+        <v>141</v>
+      </c>
       <c r="H74" t="s">
-        <v>104</v>
+        <v>142</v>
+      </c>
+      <c r="I74" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94219.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400379</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -65,6 +71,9 @@
   </si>
   <si>
     <t>412643</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>MacArthur</t>
@@ -800,7 +809,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,7 +817,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -833,2116 +842,2332 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" t="s">
-        <v>32</v>
       </c>
       <c r="I13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>41</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>49</v>
+      </c>
+      <c r="J19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
       </c>
       <c r="I21" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G24" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I25" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I26" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G27" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G28" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G29" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G30" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="J31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I33" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="H35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>71</v>
+      </c>
+      <c r="J35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s">
-        <v>77</v>
-      </c>
-      <c r="H36" t="s"/>
-      <c r="I36" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="G36" t="s"/>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s"/>
+      <c r="J36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
-      </c>
-      <c r="G38" t="s">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G39" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H39" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I39" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I40" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G41" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H41" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I41" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="J41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G42" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G43" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G44" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J44" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G45" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G46" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I46" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="H47" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G49" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H49" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>98</v>
+      </c>
+      <c r="J49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="G50" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="H50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="I50" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="J50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G51" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H51" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I51" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G52" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H52" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I52" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J52" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G54" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="H54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>104</v>
+      </c>
+      <c r="J54" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H55" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I55" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J55" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G57" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H57" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G58" t="s">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="H58" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I58" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>116</v>
+      </c>
+      <c r="J58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I59" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G60" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
       <c r="H60" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J60" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G61" t="s">
-        <v>122</v>
+        <v>19</v>
       </c>
       <c r="H61" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="I61" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H62" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I62" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H63" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I63" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="J63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G64" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H64" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I64" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G65" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J65" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G66" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H66" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J66" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H67" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G68" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H68" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I68" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J68" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G69" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H69" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J69" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G70" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H70" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="H71" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>55</v>
+      </c>
+      <c r="J71" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G72" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H72" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I72" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J72" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G73" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H73" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I73" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>145</v>
+      </c>
+      <c r="J73" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="G74" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="I74" t="s">
         <v>145</v>
+      </c>
+      <c r="J74" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
